--- a/data.xlsx
+++ b/data.xlsx
@@ -2,31 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new title" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00#"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="1"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,23 +58,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,24 +455,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>latest_trade_price</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>trade_volume</t>
-        </is>
+      <c r="A1" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
@@ -486,266 +515,999 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>126.8500</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>126.9000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>127.9000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>128.2000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>126.5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>5115</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>126.8500</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>126.9000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.8000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>126.9500</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>127.9000</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>128.2000</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>126.5500</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>126.8500</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>5115</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>126.8000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>126.9500</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.7500</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>127.0000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>127.9000</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>128.2000</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>126.5500</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>126.8500</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>5115</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>126.7500</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>126.7000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>127.0500</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>127.9000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>128.2000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>126.5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>126.6500</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>127.0000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>127.1000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>127.9000</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>128.2000</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>126.5500</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>126.8500</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>126.7000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>127.0500</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>126.8500</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>126.6500</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>127.1000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,49 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C9695-979B-4DD4-9A18-0992DBB15C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5556" yWindow="756" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new title" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new title" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+  <si>
+    <t>accumulate_trade_volume</t>
+  </si>
+  <si>
+    <t>best_bid_price</t>
+  </si>
+  <si>
+    <t>best_bid_volume</t>
+  </si>
+  <si>
+    <t>best_ask_price</t>
+  </si>
+  <si>
+    <t>best_ask_volume</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>5115</t>
+  </si>
+  <si>
+    <t>126.8500</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>126.9000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>127.9000</t>
+  </si>
+  <si>
+    <t>128.2000</t>
+  </si>
+  <si>
+    <t>126.5500</t>
+  </si>
+  <si>
+    <t>126.8000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>126.9500</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>126.7500</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>127.0000</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>126.7000</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>127.0500</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>126.6500</t>
+  </si>
+  <si>
+    <t>127.1000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>元大台灣50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大台灣50</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00#"/>
+    <numFmt numFmtId="176" formatCode="00#"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,93 +190,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,1064 +501,969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>accumulate_trade_volume</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>best_bid_price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>best_bid_volume</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>best_ask_price</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>best_ask_volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>126.8500</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>126.9000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>126.8000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>126.9500</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>126.7500</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>127.0000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>126.7000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>127.0500</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5115</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>126.6500</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>127.1000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>127.9000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>128.2000</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>126.5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>25</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>26</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>26</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>29</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>31</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>32</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>33</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>35</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>36</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="5" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>45</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>47</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="5" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>48</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>49</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="5" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>50</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="5" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>51</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>52</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>53</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>54</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>55</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="5" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>56</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="5" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>57</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="5" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>58</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="5" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>59</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="5" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>60</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
         <v>61</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="5" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <v>62</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="5" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>63</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="5" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>64</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>64</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="5" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>65</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="5" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>66</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="5" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
         <v>67</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="5" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>68</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="5" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>69</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="5" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
         <v>70</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="5" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <v>71</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="5" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <v>72</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="5" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <v>73</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="5" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
         <v>74</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="5" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
         <v>75</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="5" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <v>76</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="5" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
         <v>77</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
         <v>78</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
         <v>79</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
         <v>80</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
         <v>81</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>81</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
         <v>82</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>82</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
         <v>83</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>83</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
         <v>84</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>84</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <v>85</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>85</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
         <v>86</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>86</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
         <v>87</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>87</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
         <v>88</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>88</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
         <v>89</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>89</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
         <v>90</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>90</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
         <v>91</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>91</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
         <v>92</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>92</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
         <v>93</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>93</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
         <v>94</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>94</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
         <v>95</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>95</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
         <v>96</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>96</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
         <v>97</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>97</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
         <v>98</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>98</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="5" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
         <v>99</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>99</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="5" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
         <v>100</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90658F-5F31-40FF-941D-F6A87FEC405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8D4F7-7CF5-4445-AF44-B27DDD210C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8D4F7-7CF5-4445-AF44-B27DDD210C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C7786-C613-45F3-90A3-A1D51135D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C7786-C613-45F3-90A3-A1D51135D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E4838B-4D4C-43CC-BB1C-16D99FA76565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="2040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new title" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>0050</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,13 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>富邦科技</t>
   </si>
 </sst>
 </file>
@@ -439,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -544,6 +551,47 @@
         <v>131.80000000000001</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>117.2</v>
+      </c>
+      <c r="D3">
+        <v>117.75</v>
+      </c>
+      <c r="E3">
+        <v>117.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>350</v>
+      </c>
+      <c r="L3">
+        <v>117.7</v>
+      </c>
+      <c r="M3">
+        <v>116.95</v>
+      </c>
+      <c r="N3">
+        <v>117.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E4838B-4D4C-43CC-BB1C-16D99FA76565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B4429-AC56-4465-A080-ACAB678EF660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,66 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>0050</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>代碼</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>買進</t>
+  </si>
+  <si>
+    <t>賣出</t>
+  </si>
+  <si>
+    <t>成交</t>
+  </si>
+  <si>
+    <t>漲跌</t>
+  </si>
+  <si>
+    <t>漲幅%</t>
+  </si>
+  <si>
+    <t>單量</t>
+  </si>
+  <si>
+    <t>委買</t>
+  </si>
+  <si>
+    <t>委賣</t>
+  </si>
+  <si>
+    <t>總量</t>
+  </si>
+  <si>
+    <t>最高</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>開盤</t>
+  </si>
+  <si>
     <t>元大台灣50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>買進</t>
-  </si>
-  <si>
-    <t>賣出</t>
-  </si>
-  <si>
-    <t>成交</t>
-  </si>
-  <si>
-    <t>漲跌</t>
-  </si>
-  <si>
-    <t>漲幅%</t>
-  </si>
-  <si>
-    <t>單量</t>
-  </si>
-  <si>
-    <t>委買</t>
-  </si>
-  <si>
-    <t>委賣</t>
-  </si>
-  <si>
-    <t>總量</t>
-  </si>
-  <si>
-    <t>最高</t>
-  </si>
-  <si>
-    <t>最低</t>
-  </si>
-  <si>
-    <t>開盤</t>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>富邦科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,7 +447,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -465,46 +463,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -512,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>131.30000000000001</v>
@@ -553,7 +551,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>117.2</v>
@@ -565,10 +563,10 @@
         <v>117.5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B4429-AC56-4465-A080-ACAB678EF660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B53EBE-9B6B-459E-9B0A-0AE5165820B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new title" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
   <si>
     <t>0050</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,7 +76,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>元大滬深300正2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大美債20年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期元大S&amp;P黃金正2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大AAA至A公司債</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信高評級公司債</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信優先金融債</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00637L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00679B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00708L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00751B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00772B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00773B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>富邦科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大MSCI金融</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大高股息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永豐臺灣加權</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富邦台50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大S&amp;P500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆豐藍籌30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富邦公司治理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國泰股利精選30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>復華富時不動產</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大台灣高息低波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一金工業30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富邦臺灣優質高息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>復華富時高息低波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富邦臺灣中小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信中國50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一FANG+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國泰北美科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永豐台灣ESG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,16 +564,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
@@ -513,13 +633,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>131.30000000000001</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>131.75</v>
-      </c>
-      <c r="E2">
-        <v>131.55000000000001</v>
+        <v>131.44999999999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -527,67 +647,1126 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>206</v>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="J2">
+        <v>185</v>
+      </c>
+      <c r="K2">
+        <v>4760</v>
+      </c>
+      <c r="L2">
+        <v>131.5</v>
+      </c>
+      <c r="M2">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="N2">
+        <v>130.94999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>117.6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>269</v>
+      </c>
+      <c r="J3">
+        <v>226</v>
+      </c>
+      <c r="K3">
+        <v>251</v>
+      </c>
+      <c r="L3">
+        <v>117.65</v>
+      </c>
+      <c r="M3">
+        <v>116.8</v>
+      </c>
+      <c r="N3">
+        <v>117.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>23.11</v>
+      </c>
+      <c r="D4">
+        <v>23.26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>186</v>
+      </c>
+      <c r="L4">
+        <v>23.25</v>
+      </c>
+      <c r="M4">
+        <v>23.08</v>
+      </c>
+      <c r="N4">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>32.69</v>
+      </c>
+      <c r="D5">
+        <v>32.78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>553</v>
+      </c>
+      <c r="J5">
+        <v>616</v>
+      </c>
+      <c r="K5">
+        <v>22185</v>
+      </c>
+      <c r="L5">
+        <v>32.79</v>
+      </c>
+      <c r="M5">
+        <v>32.6</v>
+      </c>
+      <c r="N5">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>87.6</v>
+      </c>
+      <c r="D6">
+        <v>88.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>87.85</v>
+      </c>
+      <c r="M6">
+        <v>87.85</v>
+      </c>
+      <c r="N6">
+        <v>87.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>75.55</v>
+      </c>
+      <c r="D7">
+        <v>76.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>463</v>
+      </c>
+      <c r="J7">
+        <v>344</v>
+      </c>
+      <c r="K7">
+        <v>2510</v>
+      </c>
+      <c r="L7">
+        <v>75.95</v>
+      </c>
+      <c r="M7">
+        <v>75.5</v>
+      </c>
+      <c r="N7">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>14.45</v>
+      </c>
+      <c r="D8">
+        <v>14.54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>1998</v>
+      </c>
+      <c r="J8">
+        <v>536</v>
+      </c>
+      <c r="K8">
+        <v>56586</v>
+      </c>
+      <c r="L8">
+        <v>14.91</v>
+      </c>
+      <c r="M8">
+        <v>14.48</v>
+      </c>
+      <c r="N8">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>646</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>42.05</v>
+      </c>
+      <c r="D9">
+        <v>42.16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>155</v>
+      </c>
+      <c r="J9">
+        <v>222</v>
+      </c>
+      <c r="K9">
+        <v>384</v>
+      </c>
+      <c r="L9">
+        <v>42.16</v>
+      </c>
+      <c r="M9">
+        <v>42.04</v>
+      </c>
+      <c r="N9">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>31.47</v>
+      </c>
+      <c r="D10">
+        <v>31.56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>1451</v>
+      </c>
+      <c r="J10">
+        <v>266</v>
+      </c>
+      <c r="K10">
+        <v>10728</v>
+      </c>
+      <c r="L10">
+        <v>31.52</v>
+      </c>
+      <c r="M10">
+        <v>31.46</v>
+      </c>
+      <c r="N10">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>690</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>27.94</v>
+      </c>
+      <c r="D11">
+        <v>28.04</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
         <v>41</v>
       </c>
-      <c r="K2">
-        <v>7172</v>
-      </c>
-      <c r="L2">
-        <v>131.80000000000001</v>
-      </c>
-      <c r="M2">
-        <v>131.1</v>
-      </c>
-      <c r="N2">
-        <v>131.80000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>117.2</v>
-      </c>
-      <c r="D3">
-        <v>117.75</v>
-      </c>
-      <c r="E3">
-        <v>117.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>645</v>
+      </c>
+      <c r="L11">
+        <v>28.05</v>
+      </c>
+      <c r="M11">
+        <v>27.87</v>
+      </c>
+      <c r="N11">
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>692</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>32.79</v>
+      </c>
+      <c r="D12">
+        <v>32.89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>509</v>
+      </c>
+      <c r="J12">
+        <v>318</v>
+      </c>
+      <c r="K12">
+        <v>1397</v>
+      </c>
+      <c r="L12">
+        <v>32.89</v>
+      </c>
+      <c r="M12">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N12">
+        <v>32.840000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>701</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>24.97</v>
+      </c>
+      <c r="D13">
+        <v>25.06</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>825</v>
+      </c>
+      <c r="L13">
+        <v>25.04</v>
+      </c>
+      <c r="M13">
+        <v>24.9</v>
+      </c>
+      <c r="N13">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>26.72</v>
+      </c>
+      <c r="D14">
+        <v>26.83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>242</v>
+      </c>
+      <c r="L14">
+        <v>26.88</v>
+      </c>
+      <c r="M14">
+        <v>26.75</v>
+      </c>
+      <c r="N14">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>712</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>9.9</v>
+      </c>
+      <c r="D15">
+        <v>9.99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>3952</v>
+      </c>
+      <c r="J15">
+        <v>1493</v>
+      </c>
+      <c r="K15">
+        <v>44571</v>
+      </c>
+      <c r="L15">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="M15">
+        <v>9.93</v>
+      </c>
+      <c r="N15">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>713</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>45.71</v>
+      </c>
+      <c r="D16">
+        <v>45.8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>139</v>
+      </c>
+      <c r="J16">
+        <v>370</v>
+      </c>
+      <c r="K16">
+        <v>10841</v>
+      </c>
+      <c r="L16">
+        <v>46.02</v>
+      </c>
+      <c r="M16">
+        <v>45.61</v>
+      </c>
+      <c r="N16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>728</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="J3">
+      <c r="C17">
+        <v>25.04</v>
+      </c>
+      <c r="D17">
+        <v>25.13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>268</v>
+      </c>
+      <c r="J17">
+        <v>167</v>
+      </c>
+      <c r="K17">
+        <v>511</v>
+      </c>
+      <c r="L17">
+        <v>25.15</v>
+      </c>
+      <c r="M17">
+        <v>24.93</v>
+      </c>
+      <c r="N17">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>730</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>19.03</v>
+      </c>
+      <c r="D18">
+        <v>19.18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>68</v>
+      </c>
+      <c r="K18">
+        <v>234</v>
+      </c>
+      <c r="L18">
+        <v>19.18</v>
+      </c>
+      <c r="M18">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="N18">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>731</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>63.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+      <c r="J19">
+        <v>193</v>
+      </c>
+      <c r="K19">
+        <v>511</v>
+      </c>
+      <c r="L19">
+        <v>63.3</v>
+      </c>
+      <c r="M19">
+        <v>63</v>
+      </c>
+      <c r="N19">
+        <v>63.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>733</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>48.93</v>
+      </c>
+      <c r="D20">
+        <v>49.08</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>310</v>
+      </c>
+      <c r="L20">
+        <v>49.28</v>
+      </c>
+      <c r="M20">
+        <v>48.52</v>
+      </c>
+      <c r="N20">
+        <v>49.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>34.4</v>
+      </c>
+      <c r="D21">
+        <v>34.49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>401</v>
+      </c>
+      <c r="J21">
+        <v>487</v>
+      </c>
+      <c r="K21">
+        <v>5613</v>
+      </c>
+      <c r="L21">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="M21">
+        <v>34.33</v>
+      </c>
+      <c r="N21">
+        <v>34.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>752</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>18.55</v>
+      </c>
+      <c r="D22">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="E22">
+        <v>18.61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>199</v>
+      </c>
+      <c r="J22">
+        <v>185</v>
+      </c>
+      <c r="K22">
+        <v>3172</v>
+      </c>
+      <c r="L22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M22">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="N22">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>757</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>57.8</v>
+      </c>
+      <c r="D23">
+        <v>58.25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>289</v>
+      </c>
+      <c r="J23">
+        <v>143</v>
+      </c>
+      <c r="K23">
+        <v>1065</v>
+      </c>
+      <c r="L23">
+        <v>58.2</v>
+      </c>
+      <c r="M23">
+        <v>57.8</v>
+      </c>
+      <c r="N23">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>770</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="D24">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>59</v>
+      </c>
+      <c r="K24">
+        <v>293</v>
+      </c>
+      <c r="L24">
+        <v>34.47</v>
+      </c>
+      <c r="M24">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="N24">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>350</v>
-      </c>
-      <c r="L3">
-        <v>117.7</v>
-      </c>
-      <c r="M3">
-        <v>116.95</v>
-      </c>
-      <c r="N3">
-        <v>117.4</v>
+      <c r="C25">
+        <v>35.24</v>
+      </c>
+      <c r="D25">
+        <v>35.33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>410</v>
+      </c>
+      <c r="J25">
+        <v>523</v>
+      </c>
+      <c r="K25">
+        <v>5717</v>
+      </c>
+      <c r="L25">
+        <v>35.29</v>
+      </c>
+      <c r="M25">
+        <v>35.18</v>
+      </c>
+      <c r="N25">
+        <v>35.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>35.32</v>
+      </c>
+      <c r="D26">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>436</v>
+      </c>
+      <c r="J26">
+        <v>383</v>
+      </c>
+      <c r="K26">
+        <v>2709</v>
+      </c>
+      <c r="L26">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="M26">
+        <v>35.26</v>
+      </c>
+      <c r="N26">
+        <v>35.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>888</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>14.43</v>
+      </c>
+      <c r="D27">
+        <v>14.52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>290</v>
+      </c>
+      <c r="J27">
+        <v>262</v>
+      </c>
+      <c r="K27">
+        <v>4058</v>
+      </c>
+      <c r="L27">
+        <v>14.52</v>
+      </c>
+      <c r="M27">
+        <v>14.35</v>
+      </c>
+      <c r="N27">
+        <v>14.39</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B53EBE-9B6B-459E-9B0A-0AE5165820B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72169C-EB66-45F5-9DFB-048864963030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new title" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>0050</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -638,8 +638,8 @@
       <c r="D2">
         <v>131.44999999999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="E2">
+        <v>131.25</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -647,17 +647,17 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
+      <c r="H2">
+        <v>109</v>
       </c>
       <c r="I2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="J2">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="K2">
-        <v>4760</v>
+        <v>5954</v>
       </c>
       <c r="L2">
         <v>131.5</v>
@@ -682,8 +682,8 @@
       <c r="D3">
         <v>117.6</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
+      <c r="E3">
+        <v>117.3</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -691,17 +691,17 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="H3">
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>251</v>
+        <v>345</v>
       </c>
       <c r="L3">
         <v>117.65</v>
@@ -721,13 +721,13 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>23.11</v>
+        <v>23.19</v>
       </c>
       <c r="D4">
-        <v>23.26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>23.3</v>
+      </c>
+      <c r="E4">
+        <v>23.25</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -735,17 +735,17 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="H4">
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L4">
         <v>23.25</v>
@@ -765,13 +765,13 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>32.69</v>
+        <v>32.68</v>
       </c>
       <c r="D5">
-        <v>32.78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
+        <v>32.770000000000003</v>
+      </c>
+      <c r="E5">
+        <v>32.729999999999997</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -779,17 +779,17 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>384</v>
       </c>
       <c r="I5">
-        <v>553</v>
+        <v>220</v>
       </c>
       <c r="J5">
-        <v>616</v>
+        <v>445</v>
       </c>
       <c r="K5">
-        <v>22185</v>
+        <v>27622</v>
       </c>
       <c r="L5">
         <v>32.79</v>
@@ -809,10 +809,10 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>87.6</v>
+        <v>87.65</v>
       </c>
       <c r="D6">
-        <v>88.1</v>
+        <v>88.25</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="L6">
-        <v>87.85</v>
+        <v>87.9</v>
       </c>
       <c r="M6">
         <v>87.85</v>
@@ -853,13 +853,13 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>75.55</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="D7">
-        <v>76.05</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E7">
+        <v>75.849999999999994</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -867,17 +867,17 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>61</v>
       </c>
       <c r="I7">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="J7">
-        <v>344</v>
+        <v>155</v>
       </c>
       <c r="K7">
-        <v>2510</v>
+        <v>2879</v>
       </c>
       <c r="L7">
         <v>75.95</v>
@@ -897,13 +897,13 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>14.45</v>
+        <v>14.48</v>
       </c>
       <c r="D8">
-        <v>14.54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>14.57</v>
+      </c>
+      <c r="E8">
+        <v>14.52</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -911,23 +911,23 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
+      <c r="H8">
+        <v>2745</v>
       </c>
       <c r="I8">
-        <v>1998</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>536</v>
+        <v>1593</v>
       </c>
       <c r="K8">
-        <v>56586</v>
+        <v>72646</v>
       </c>
       <c r="L8">
         <v>14.91</v>
       </c>
       <c r="M8">
-        <v>14.48</v>
+        <v>14.45</v>
       </c>
       <c r="N8">
         <v>14.91</v>
@@ -941,13 +941,13 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.05</v>
+        <v>42.07</v>
       </c>
       <c r="D9">
-        <v>42.16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
+        <v>42.17</v>
+      </c>
+      <c r="E9">
+        <v>42.13</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -955,17 +955,17 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
+      <c r="H9">
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="J9">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="K9">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="L9">
         <v>42.16</v>
@@ -985,13 +985,13 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>31.47</v>
+        <v>31.48</v>
       </c>
       <c r="D10">
-        <v>31.56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
+        <v>31.57</v>
+      </c>
+      <c r="E10">
+        <v>31.52</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -999,20 +999,20 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
+      <c r="H10">
+        <v>468</v>
       </c>
       <c r="I10">
-        <v>1451</v>
+        <v>960</v>
       </c>
       <c r="J10">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="K10">
-        <v>10728</v>
+        <v>14875</v>
       </c>
       <c r="L10">
-        <v>31.52</v>
+        <v>31.54</v>
       </c>
       <c r="M10">
         <v>31.46</v>
@@ -1029,13 +1029,13 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>27.94</v>
+        <v>27.9</v>
       </c>
       <c r="D11">
-        <v>28.04</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
+        <v>28.02</v>
+      </c>
+      <c r="E11">
+        <v>27.97</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1043,17 +1043,17 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
+      <c r="H11">
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>645</v>
+        <v>804</v>
       </c>
       <c r="L11">
         <v>28.05</v>
@@ -1078,8 +1078,8 @@
       <c r="D12">
         <v>32.89</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
+      <c r="E12">
+        <v>32.85</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1087,17 +1087,17 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
+      <c r="H12">
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>509</v>
+        <v>108</v>
       </c>
       <c r="J12">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>1397</v>
+        <v>2204</v>
       </c>
       <c r="L12">
         <v>32.89</v>
@@ -1117,13 +1117,13 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>24.97</v>
+        <v>24.98</v>
       </c>
       <c r="D13">
-        <v>25.06</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
+        <v>25.07</v>
+      </c>
+      <c r="E13">
+        <v>25.03</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1131,17 +1131,17 @@
       <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
-        <v>16</v>
+      <c r="H13">
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K13">
-        <v>825</v>
+        <v>983</v>
       </c>
       <c r="L13">
         <v>25.04</v>
@@ -1161,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>26.72</v>
+        <v>26.8</v>
       </c>
       <c r="D14">
-        <v>26.83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
+        <v>26.9</v>
+      </c>
+      <c r="E14">
+        <v>26.85</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1175,17 +1175,17 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="s">
-        <v>16</v>
+      <c r="H14">
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="K14">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="L14">
         <v>26.88</v>
@@ -1210,8 +1210,8 @@
       <c r="D15">
         <v>9.99</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
+      <c r="E15">
+        <v>9.94</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1219,17 +1219,17 @@
       <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" t="s">
-        <v>16</v>
+      <c r="H15">
+        <v>7338</v>
       </c>
       <c r="I15">
-        <v>3952</v>
+        <v>3834</v>
       </c>
       <c r="J15">
-        <v>1493</v>
+        <v>1881</v>
       </c>
       <c r="K15">
-        <v>44571</v>
+        <v>71454</v>
       </c>
       <c r="L15">
         <v>9.9700000000000006</v>
@@ -1249,13 +1249,13 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>45.71</v>
+        <v>45.69</v>
       </c>
       <c r="D16">
-        <v>45.8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
+        <v>45.78</v>
+      </c>
+      <c r="E16">
+        <v>45.73</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1263,17 +1263,17 @@
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
+      <c r="H16">
+        <v>295</v>
       </c>
       <c r="I16">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="J16">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="K16">
-        <v>10841</v>
+        <v>13613</v>
       </c>
       <c r="L16">
         <v>46.02</v>
@@ -1293,13 +1293,13 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>25.04</v>
+        <v>25.03</v>
       </c>
       <c r="D17">
-        <v>25.13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
+        <v>25.12</v>
+      </c>
+      <c r="E17">
+        <v>25.08</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1307,17 +1307,17 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>16</v>
+      <c r="H17">
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="J17">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>511</v>
+        <v>599</v>
       </c>
       <c r="L17">
         <v>25.15</v>
@@ -1337,10 +1337,10 @@
         <v>41</v>
       </c>
       <c r="C18">
-        <v>19.03</v>
+        <v>19.04</v>
       </c>
       <c r="D18">
-        <v>19.18</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1355,13 +1355,13 @@
         <v>16</v>
       </c>
       <c r="I18">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L18">
         <v>19.18</v>
@@ -1386,8 +1386,8 @@
       <c r="D19">
         <v>63.5</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
+      <c r="E19">
+        <v>63.25</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -1395,17 +1395,17 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="J19">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>511</v>
+        <v>826</v>
       </c>
       <c r="L19">
         <v>63.3</v>
@@ -1425,13 +1425,13 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>48.93</v>
+        <v>48.92</v>
       </c>
       <c r="D20">
-        <v>49.08</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
+        <v>49.25</v>
+      </c>
+      <c r="E20">
+        <v>49.21</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1439,17 +1439,17 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
+      <c r="H20">
+        <v>22</v>
       </c>
       <c r="I20">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="L20">
         <v>49.28</v>
@@ -1474,8 +1474,8 @@
       <c r="D21">
         <v>34.49</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
+      <c r="E21">
+        <v>34.44</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1483,17 +1483,17 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
+      <c r="H21">
+        <v>152</v>
       </c>
       <c r="I21">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="J21">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="K21">
-        <v>5613</v>
+        <v>7087</v>
       </c>
       <c r="L21">
         <v>34.450000000000003</v>
@@ -1513,13 +1513,13 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>18.55</v>
+        <v>18.63</v>
       </c>
       <c r="D22">
-        <v>18.649999999999999</v>
+        <v>18.73</v>
       </c>
       <c r="E22">
-        <v>18.61</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1528,16 +1528,16 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I22">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="J22">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="K22">
-        <v>3172</v>
+        <v>5234</v>
       </c>
       <c r="L22">
         <v>18.899999999999999</v>
@@ -1562,8 +1562,8 @@
       <c r="D23">
         <v>58.25</v>
       </c>
-      <c r="E23" t="s">
-        <v>16</v>
+      <c r="E23">
+        <v>58</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1571,17 +1571,17 @@
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
+      <c r="H23">
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J23">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K23">
-        <v>1065</v>
+        <v>1273</v>
       </c>
       <c r="L23">
         <v>58.2</v>
@@ -1601,13 +1601,13 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>34.369999999999997</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="D24">
         <v>34.479999999999997</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
+      <c r="E24">
+        <v>34.43</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1615,17 +1615,17 @@
       <c r="G24" t="s">
         <v>16</v>
       </c>
-      <c r="H24" t="s">
-        <v>16</v>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="L24">
         <v>34.47</v>
@@ -1645,13 +1645,13 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>35.24</v>
+        <v>35.25</v>
       </c>
       <c r="D25">
-        <v>35.33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
+        <v>35.340000000000003</v>
+      </c>
+      <c r="E25">
+        <v>35.29</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1659,20 +1659,20 @@
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
+      <c r="H25">
+        <v>513</v>
       </c>
       <c r="I25">
-        <v>410</v>
+        <v>794</v>
       </c>
       <c r="J25">
-        <v>523</v>
+        <v>378</v>
       </c>
       <c r="K25">
-        <v>5717</v>
+        <v>8308</v>
       </c>
       <c r="L25">
-        <v>35.29</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="M25">
         <v>35.18</v>
@@ -1694,8 +1694,8 @@
       <c r="D26">
         <v>35.409999999999997</v>
       </c>
-      <c r="E26" t="s">
-        <v>16</v>
+      <c r="E26">
+        <v>35.369999999999997</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -1703,20 +1703,20 @@
       <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="H26" t="s">
-        <v>16</v>
+      <c r="H26">
+        <v>100</v>
       </c>
       <c r="I26">
-        <v>436</v>
+        <v>225</v>
       </c>
       <c r="J26">
-        <v>383</v>
+        <v>253</v>
       </c>
       <c r="K26">
-        <v>2709</v>
+        <v>3327</v>
       </c>
       <c r="L26">
-        <v>35.380000000000003</v>
+        <v>35.39</v>
       </c>
       <c r="M26">
         <v>35.26</v>
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="C27">
-        <v>14.43</v>
+        <v>14.42</v>
       </c>
       <c r="D27">
-        <v>14.52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
+        <v>14.51</v>
+      </c>
+      <c r="E27">
+        <v>14.47</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1747,17 +1747,17 @@
       <c r="G27" t="s">
         <v>16</v>
       </c>
-      <c r="H27" t="s">
-        <v>16</v>
+      <c r="H27">
+        <v>42</v>
       </c>
       <c r="I27">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="J27">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>4058</v>
+        <v>5237</v>
       </c>
       <c r="L27">
         <v>14.52</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72169C-EB66-45F5-9DFB-048864963030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560F4C83-EA56-4739-9061-5C05B9FC69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2760" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new title" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t>0050</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,8 +196,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>元大臺灣ESG永續</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國泰永續高股息</t>
+  </si>
+  <si>
+    <t>國泰台灣5G+</t>
+  </si>
+  <si>
+    <t>中信中國高股息</t>
+  </si>
+  <si>
+    <t>富邦越南</t>
+  </si>
+  <si>
     <t>永豐台灣ESG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富邦台灣半導體</t>
+  </si>
+  <si>
+    <t>中信小資高價30</t>
+  </si>
+  <si>
+    <t>富邦特選高股息30</t>
+  </si>
+  <si>
+    <t>永豐優息存股</t>
+  </si>
+  <si>
+    <t>元大US高息特別股</t>
   </si>
 </sst>
 </file>
@@ -564,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1730,43 +1763,453 @@
         <v>888</v>
       </c>
       <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>34.22</v>
+      </c>
+      <c r="D27">
+        <v>34.33</v>
+      </c>
+      <c r="E27">
+        <v>34.29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>148</v>
+      </c>
+      <c r="J27">
+        <v>102</v>
+      </c>
+      <c r="K27">
+        <v>1156</v>
+      </c>
+      <c r="L27">
+        <v>34.31</v>
+      </c>
+      <c r="M27">
+        <v>34.1</v>
+      </c>
+      <c r="N27">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="D28">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E28">
+        <v>19.28</v>
+      </c>
+      <c r="F28" t="s">
         <v>47</v>
       </c>
-      <c r="C27">
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28">
+        <v>373</v>
+      </c>
+      <c r="I28">
+        <v>1151</v>
+      </c>
+      <c r="J28">
+        <v>713</v>
+      </c>
+      <c r="K28">
+        <v>77628</v>
+      </c>
+      <c r="L28">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="M28">
+        <v>19.18</v>
+      </c>
+      <c r="N28">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="D29">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="E29">
+        <v>17.11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <v>512</v>
+      </c>
+      <c r="I29">
+        <v>723</v>
+      </c>
+      <c r="J29">
+        <v>1600</v>
+      </c>
+      <c r="K29">
+        <v>20563</v>
+      </c>
+      <c r="L29">
+        <v>17.13</v>
+      </c>
+      <c r="M29">
+        <v>16.97</v>
+      </c>
+      <c r="N29">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>11.71</v>
+      </c>
+      <c r="D30">
+        <v>11.8</v>
+      </c>
+      <c r="E30">
+        <v>11.75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>559</v>
+      </c>
+      <c r="I30">
+        <v>567</v>
+      </c>
+      <c r="J30">
+        <v>7072</v>
+      </c>
+      <c r="K30">
+        <v>17032</v>
+      </c>
+      <c r="L30">
+        <v>11.87</v>
+      </c>
+      <c r="M30">
+        <v>11.74</v>
+      </c>
+      <c r="N30">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>11.86</v>
+      </c>
+      <c r="D31">
+        <v>11.95</v>
+      </c>
+      <c r="E31">
+        <v>11.9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31">
+        <v>391</v>
+      </c>
+      <c r="I31">
+        <v>425</v>
+      </c>
+      <c r="J31">
+        <v>322</v>
+      </c>
+      <c r="K31">
+        <v>12957</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31">
+        <v>11.89</v>
+      </c>
+      <c r="N31">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
         <v>14.42</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <v>14.51</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <v>14.47</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32">
         <v>42</v>
       </c>
-      <c r="I27">
+      <c r="I32">
         <v>273</v>
       </c>
-      <c r="J27">
+      <c r="J32">
         <v>73</v>
       </c>
-      <c r="K27">
+      <c r="K32">
         <v>5237</v>
       </c>
-      <c r="L27">
+      <c r="L32">
         <v>14.52</v>
       </c>
-      <c r="M27">
+      <c r="M32">
         <v>14.35</v>
       </c>
-      <c r="N27">
+      <c r="N32">
         <v>14.39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>13.02</v>
+      </c>
+      <c r="D33">
+        <v>13.11</v>
+      </c>
+      <c r="E33">
+        <v>13.06</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33">
+        <v>134</v>
+      </c>
+      <c r="I33">
+        <v>52</v>
+      </c>
+      <c r="J33">
+        <v>467</v>
+      </c>
+      <c r="K33">
+        <v>5281</v>
+      </c>
+      <c r="L33">
+        <v>13.1</v>
+      </c>
+      <c r="M33">
+        <v>12.9</v>
+      </c>
+      <c r="N33">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>14.85</v>
+      </c>
+      <c r="D34">
+        <v>14.94</v>
+      </c>
+      <c r="E34">
+        <v>14.9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>2249</v>
+      </c>
+      <c r="L34">
+        <v>14.93</v>
+      </c>
+      <c r="M34">
+        <v>14.78</v>
+      </c>
+      <c r="N34">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>12.23</v>
+      </c>
+      <c r="D35">
+        <v>12.32</v>
+      </c>
+      <c r="E35">
+        <v>12.27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35">
+        <v>281</v>
+      </c>
+      <c r="I35">
+        <v>486</v>
+      </c>
+      <c r="J35">
+        <v>611</v>
+      </c>
+      <c r="K35">
+        <v>14232</v>
+      </c>
+      <c r="L35">
+        <v>12.35</v>
+      </c>
+      <c r="M35">
+        <v>12.24</v>
+      </c>
+      <c r="N35">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>14.8</v>
+      </c>
+      <c r="D36">
+        <v>14.89</v>
+      </c>
+      <c r="E36">
+        <v>14.85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>275</v>
+      </c>
+      <c r="J36">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <v>1796</v>
+      </c>
+      <c r="L36">
+        <v>14.92</v>
+      </c>
+      <c r="M36">
+        <v>14.81</v>
+      </c>
+      <c r="N36">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>15.81</v>
+      </c>
+      <c r="D37">
+        <v>16.05</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>30</v>
+      </c>
+      <c r="L37">
+        <v>15.9</v>
+      </c>
+      <c r="M37">
+        <v>15.82</v>
+      </c>
+      <c r="N37">
+        <v>15.88</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFF4700-0BA9-4362-B684-E1742E2ADFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B611CC-066E-4F1A-B186-87A89FF73625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,255 +63,239 @@
   </si>
   <si>
     <t>元大台灣50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大滬深300正2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大美債20年</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期元大S&amp;P黃金正2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大AAA至A公司債</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中信高評級公司債</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中信優先金融債</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦科技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大MSCI金融</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大高股息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>永豐臺灣加權</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦台50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大S&amp;P500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>兆豐藍籌30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦公司治理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰股利精選30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>復華富時不動產</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大台灣高息低波</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第一金工業30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦臺灣優質高息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>復華富時高息低波</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦臺灣中小</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中信中國50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>統一FANG+</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰北美科技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大臺灣ESG永續</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰永續高股息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰台灣5G+</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中信中國高股息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦越南</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>永豐台灣ESG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦台灣半導體</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中信小資高價30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦特選高股息30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>永豐優息存股</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大US高息特別股</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>漲跌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>仁寶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>昨收</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE(市盈率)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ROE%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>資產報酬率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毛利率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>營益率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>稅後淨利率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每股淨值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈餘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>流動比率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速動比率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>負債比率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利息保障倍數</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>應收帳款收現天數</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>存貨週轉天數</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>現金股利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>股票股利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>殖利率%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>除息日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>股息發放日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>除權日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>盈餘再投資比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>總管理費%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB(市淨率)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
@@ -489,87 +473,103 @@
   </si>
   <si>
     <t>大統益</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>正新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>台達電</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>鴻海</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敦陽科</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>統一超</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>台灣大</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>緯創</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>聯鈞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日月光投控</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>致伸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>聚鼎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>台汽電</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>寶成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰費城半導體</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰永續高股息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>國泰台灣5G+</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>永豐台灣ESG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富邦台灣半導體</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>永豐優息存股</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元大US高息特別股</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈餘 -年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖利率%-年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE(市盈率)-月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB(市淨率)-月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,12 +579,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,46 +693,54 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1032,8 +1048,8 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA44" sqref="AA44"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1052,20 +1068,22 @@
     <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.125" style="15" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.25" bestFit="1" customWidth="1"/>
@@ -1119,74 +1137,74 @@
       <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1194,10 +1212,10 @@
         <v>45107</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D2">
         <v>144.5</v>
@@ -1238,10 +1256,10 @@
       <c r="P2">
         <v>147</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="15">
         <v>21.46</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="15">
         <v>4.28</v>
       </c>
       <c r="S2" s="8">
@@ -1260,15 +1278,15 @@
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="X2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="15">
         <v>7.66</v>
       </c>
       <c r="Z2" s="8">
         <v>3.8532000000000002</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="17">
         <v>1.9886999999999999</v>
       </c>
       <c r="AB2" s="8">
@@ -1277,10 +1295,10 @@
       <c r="AC2">
         <v>173.78</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="15">
         <v>15.89</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="15">
         <v>53.32</v>
       </c>
       <c r="AF2">
@@ -1289,7 +1307,7 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="17">
         <v>3.95E-2</v>
       </c>
       <c r="AI2" s="9">
@@ -1302,7 +1320,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1310,10 +1328,10 @@
         <v>45107</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>39.9</v>
@@ -1354,10 +1372,10 @@
       <c r="P3">
         <v>41.1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="15">
         <v>25.85</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="15">
         <v>1.64</v>
       </c>
       <c r="S3" s="8">
@@ -1376,15 +1394,15 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="X3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="15">
         <v>1.53</v>
       </c>
       <c r="Z3" s="8">
         <v>1.9121999999999999</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="17">
         <v>1.2726</v>
       </c>
       <c r="AB3" s="8">
@@ -1393,10 +1411,10 @@
       <c r="AC3">
         <v>8.2799999999999994</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="15">
         <v>38.89</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="15">
         <v>97.91</v>
       </c>
       <c r="AF3">
@@ -1405,7 +1423,7 @@
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="17">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="AI3" s="9">
@@ -1418,7 +1436,7 @@
         <v>-1.4626999999999999</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1426,10 +1444,10 @@
         <v>45107</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4">
         <v>342.5</v>
@@ -1470,10 +1488,10 @@
       <c r="P4">
         <v>339.5</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="15">
         <v>27.09</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="15">
         <v>4.7</v>
       </c>
       <c r="S4" s="8">
@@ -1492,15 +1510,15 @@
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="15">
         <v>12.58</v>
       </c>
       <c r="Z4" s="8">
         <v>2.0339</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="17">
         <v>1.3468</v>
       </c>
       <c r="AB4" s="8">
@@ -1509,10 +1527,10 @@
       <c r="AC4">
         <v>40.229999999999997</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="15">
         <v>76.5</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="15">
         <v>107.25</v>
       </c>
       <c r="AF4">
@@ -1521,7 +1539,7 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="17">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="AI4" s="9">
@@ -1534,7 +1552,7 @@
         <v>0.25390000000000001</v>
       </c>
       <c r="AM4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1542,10 +1560,10 @@
         <v>45107</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>110.5</v>
@@ -1586,10 +1604,10 @@
       <c r="P5">
         <v>113</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="15">
         <v>12.54</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="15">
         <v>1.1200000000000001</v>
       </c>
       <c r="S5" s="8">
@@ -1608,15 +1626,15 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="15">
         <v>10.210000000000001</v>
       </c>
       <c r="Z5" s="8">
         <v>1.5947</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="17">
         <v>1.1248</v>
       </c>
       <c r="AB5" s="8">
@@ -1625,10 +1643,10 @@
       <c r="AC5">
         <v>2.4</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="15">
         <v>55.46</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="15">
         <v>57.38</v>
       </c>
       <c r="AF5">
@@ -1637,7 +1655,7 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="17">
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="AI5" s="9">
@@ -1650,7 +1668,7 @@
         <v>0.25950000000000001</v>
       </c>
       <c r="AM5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1658,7 +1676,7 @@
         <v>45107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
@@ -1702,10 +1720,10 @@
       <c r="P6">
         <v>29.5</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="15">
         <v>19.670000000000002</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="15">
         <v>1.1499999999999999</v>
       </c>
       <c r="S6" s="8">
@@ -1724,15 +1742,15 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="15">
         <v>1.67</v>
       </c>
       <c r="Z6" s="8">
         <v>1.2763</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="17">
         <v>0.88519999999999999</v>
       </c>
       <c r="AB6" s="8">
@@ -1741,10 +1759,10 @@
       <c r="AC6">
         <v>2.93</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="15">
         <v>78.42</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="15">
         <v>51.63</v>
       </c>
       <c r="AF6">
@@ -1753,7 +1771,7 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="17">
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="AI6" s="9">
@@ -1766,7 +1784,7 @@
         <v>0.2291</v>
       </c>
       <c r="AM6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1774,10 +1792,10 @@
         <v>45107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>111.5</v>
@@ -1818,10 +1836,10 @@
       <c r="P7">
         <v>114.5</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="15">
         <v>15.95</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="15">
         <v>4.5199999999999996</v>
       </c>
       <c r="S7" s="8">
@@ -1840,15 +1858,15 @@
         <v>0.1232</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y7">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="15">
         <v>6.91</v>
       </c>
       <c r="Z7" s="8">
         <v>1.5374000000000001</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="17">
         <v>0.86370000000000002</v>
       </c>
       <c r="AB7" s="8">
@@ -1857,10 +1875,10 @@
       <c r="AC7">
         <v>572.54</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="15">
         <v>28.64</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="15">
         <v>179.44</v>
       </c>
       <c r="AF7">
@@ -1869,7 +1887,7 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="AI7" s="9">
@@ -1882,7 +1900,7 @@
         <v>-8.6999999999999994E-3</v>
       </c>
       <c r="AM7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -1890,10 +1908,10 @@
         <v>45107</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>280.5</v>
@@ -1934,10 +1952,10 @@
       <c r="P8">
         <v>286</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="15">
         <v>29.95</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="15">
         <v>7.59</v>
       </c>
       <c r="S8" s="8">
@@ -1956,15 +1974,15 @@
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="15">
         <v>8.93</v>
       </c>
       <c r="Z8" s="8">
         <v>0.88239999999999996</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="17">
         <v>0.65439999999999998</v>
       </c>
       <c r="AB8" s="8">
@@ -1973,10 +1991,10 @@
       <c r="AC8">
         <v>13.72</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="15">
         <v>7.42</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="15">
         <v>38.06</v>
       </c>
       <c r="AF8">
@@ -1985,7 +2003,7 @@
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="17">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="AI8" s="9">
@@ -1998,7 +2016,7 @@
         <v>0.217</v>
       </c>
       <c r="AM8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2006,10 +2024,10 @@
         <v>45107</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>95.2</v>
@@ -2050,10 +2068,10 @@
       <c r="P9">
         <v>96.2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="15">
         <v>25.7</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="15">
         <v>4.21</v>
       </c>
       <c r="S9" s="8">
@@ -2072,15 +2090,15 @@
         <v>7.4800000000000005E-2</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9">
+        <v>80</v>
+      </c>
+      <c r="Y9" s="15">
         <v>3.91</v>
       </c>
       <c r="Z9" s="8">
         <v>0.62939999999999996</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="17">
         <v>0.50649999999999995</v>
       </c>
       <c r="AB9" s="8">
@@ -2089,10 +2107,10 @@
       <c r="AC9">
         <v>18.579999999999998</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="15">
         <v>17.28</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="15">
         <v>20.8</v>
       </c>
       <c r="AF9">
@@ -2101,7 +2119,7 @@
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="17">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="AI9" s="9">
@@ -2114,7 +2132,7 @@
         <v>0.15409999999999999</v>
       </c>
       <c r="AM9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2122,10 +2140,10 @@
         <v>45107</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>90.3</v>
@@ -2166,10 +2184,10 @@
       <c r="P10">
         <v>83.6</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="15">
         <v>19.53</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="15">
         <v>2.46</v>
       </c>
       <c r="S10" s="8">
@@ -2188,15 +2206,15 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="X10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y10">
+        <v>81</v>
+      </c>
+      <c r="Y10" s="15">
         <v>4.01</v>
       </c>
       <c r="Z10" s="8">
         <v>1.1720999999999999</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="17">
         <v>0.65139999999999998</v>
       </c>
       <c r="AB10" s="8">
@@ -2205,10 +2223,10 @@
       <c r="AC10">
         <v>2.15</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="15">
         <v>43.09</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="15">
         <v>69.56</v>
       </c>
       <c r="AF10">
@@ -2217,7 +2235,7 @@
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="17">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="AI10" s="9">
@@ -2230,7 +2248,7 @@
         <v>0.22090000000000001</v>
       </c>
       <c r="AM10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2238,10 +2256,10 @@
         <v>45107</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>39.200000000000003</v>
@@ -2282,10 +2300,10 @@
       <c r="P11">
         <v>38.5</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="15">
         <v>62.1</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="15">
         <v>1.43</v>
       </c>
       <c r="S11" s="8">
@@ -2304,15 +2322,15 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="X11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11">
+        <v>82</v>
+      </c>
+      <c r="Y11" s="15">
         <v>1.32</v>
       </c>
       <c r="Z11" s="8">
         <v>1.7377</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="17">
         <v>1.5510999999999999</v>
       </c>
       <c r="AB11" s="8">
@@ -2321,10 +2339,10 @@
       <c r="AC11">
         <v>25.15</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="15">
         <v>67.37</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="15">
         <v>42.48</v>
       </c>
       <c r="AF11">
@@ -2333,7 +2351,7 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="17">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="AI11" s="9">
@@ -2346,7 +2364,7 @@
         <v>0.78069999999999995</v>
       </c>
       <c r="AM11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2354,10 +2372,10 @@
         <v>45107</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12">
         <v>108.5</v>
@@ -2398,10 +2416,10 @@
       <c r="P12">
         <v>113.5</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="15">
         <v>9.58</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="15">
         <v>1.95</v>
       </c>
       <c r="S12" s="8">
@@ -2420,15 +2438,15 @@
         <v>4.65E-2</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y12">
+        <v>83</v>
+      </c>
+      <c r="Y12" s="15">
         <v>14.53</v>
       </c>
       <c r="Z12" s="8">
         <v>1.1575</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="17">
         <v>0.79200000000000004</v>
       </c>
       <c r="AB12" s="8">
@@ -2437,10 +2455,10 @@
       <c r="AC12">
         <v>6.53</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="15">
         <v>70.88</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="15">
         <v>72</v>
       </c>
       <c r="AF12">
@@ -2449,7 +2467,7 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="17">
         <v>7.1800000000000003E-2</v>
       </c>
       <c r="AI12" s="9">
@@ -2462,7 +2480,7 @@
         <v>0.3322</v>
       </c>
       <c r="AM12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2470,10 +2488,10 @@
         <v>45107</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>65.3</v>
@@ -2514,10 +2532,10 @@
       <c r="P13">
         <v>65.8</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="15">
         <v>11.02</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="15">
         <v>1.78</v>
       </c>
       <c r="S13" s="8">
@@ -2536,15 +2554,15 @@
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="X13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y13">
+        <v>84</v>
+      </c>
+      <c r="Y13" s="15">
         <v>6.1</v>
       </c>
       <c r="Z13" s="8">
         <v>1.3709</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="17">
         <v>1.0018</v>
       </c>
       <c r="AB13" s="8">
@@ -2553,10 +2571,10 @@
       <c r="AC13">
         <v>21.4</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="15">
         <v>84.42</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="15">
         <v>64.8</v>
       </c>
       <c r="AF13">
@@ -2565,7 +2583,7 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH13" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="AI13" s="9">
@@ -2578,7 +2596,7 @@
         <v>0.20619999999999999</v>
       </c>
       <c r="AM13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2586,10 +2604,10 @@
         <v>45107</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14">
         <v>61.6</v>
@@ -2630,10 +2648,10 @@
       <c r="P14">
         <v>62.3</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="15">
         <v>346.11</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="15">
         <v>2.13</v>
       </c>
       <c r="S14" s="8">
@@ -2652,15 +2670,15 @@
         <v>-3.04E-2</v>
       </c>
       <c r="X14" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y14">
+        <v>85</v>
+      </c>
+      <c r="Y14" s="15">
         <v>1.05</v>
       </c>
       <c r="Z14" s="8">
         <v>1.9191</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AA14" s="17">
         <v>1.4209000000000001</v>
       </c>
       <c r="AB14" s="8">
@@ -2669,10 +2687,10 @@
       <c r="AC14">
         <v>0.35</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="15">
         <v>67.75</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="15">
         <v>129.02000000000001</v>
       </c>
       <c r="AF14">
@@ -2681,7 +2699,7 @@
       <c r="AG14">
         <v>0</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AH14" s="17">
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="AI14" s="9">
@@ -2694,7 +2712,7 @@
         <v>0.34910000000000002</v>
       </c>
       <c r="AM14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2702,10 +2720,10 @@
         <v>45107</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15">
         <v>54.7</v>
@@ -2746,10 +2764,10 @@
       <c r="P15">
         <v>54.7</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="15">
         <v>24.75</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="15">
         <v>2.61</v>
       </c>
       <c r="S15" s="8">
@@ -2768,15 +2786,15 @@
         <v>0.62719999999999998</v>
       </c>
       <c r="X15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y15">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="15">
         <v>1.54</v>
       </c>
       <c r="Z15" s="8">
         <v>0.94059999999999999</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="17">
         <v>0.9375</v>
       </c>
       <c r="AB15" s="8">
@@ -2785,10 +2803,10 @@
       <c r="AC15">
         <v>25.04</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="15">
         <v>41.93</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="15">
         <v>1.86</v>
       </c>
       <c r="AF15">
@@ -2797,7 +2815,7 @@
       <c r="AG15">
         <v>0.7</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="17">
         <v>1.9E-2</v>
       </c>
       <c r="AI15" s="9">
@@ -2810,7 +2828,7 @@
         <v>0.745</v>
       </c>
       <c r="AM15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2818,10 +2836,10 @@
         <v>45107</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D16">
         <v>31.3</v>
@@ -2862,10 +2880,10 @@
       <c r="P16">
         <v>31.7</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="15">
         <v>10.39</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="15">
         <v>0.82</v>
       </c>
       <c r="S16" s="8">
@@ -2884,15 +2902,15 @@
         <v>3.39E-2</v>
       </c>
       <c r="X16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y16">
+        <v>87</v>
+      </c>
+      <c r="Y16" s="15">
         <v>4.29</v>
       </c>
       <c r="Z16" s="8">
         <v>1.9652000000000001</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="17">
         <v>1.3294999999999999</v>
       </c>
       <c r="AB16" s="8">
@@ -2901,10 +2919,10 @@
       <c r="AC16">
         <v>4.41</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="15">
         <v>39.04</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="15">
         <v>96.63</v>
       </c>
       <c r="AF16">
@@ -2913,7 +2931,7 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AH16" s="17">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="AI16" s="9">
@@ -2926,7 +2944,7 @@
         <v>-0.1358</v>
       </c>
       <c r="AM16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -2934,7 +2952,7 @@
         <v>45107</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2978,50 +2996,50 @@
       <c r="P17">
         <v>129.05000000000001</v>
       </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>76</v>
+      <c r="Q17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF17">
         <v>2.6</v>
@@ -3029,7 +3047,7 @@
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="AI17" s="9">
@@ -3039,7 +3057,7 @@
         <v>44992</v>
       </c>
       <c r="AL17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM17" s="8">
         <v>3.2000000000000002E-3</v>
@@ -3050,7 +3068,7 @@
         <v>45107</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -3094,50 +3112,50 @@
       <c r="P18">
         <v>115.45</v>
       </c>
-      <c r="Q18" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" t="s">
-        <v>76</v>
+      <c r="Q18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE18" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF18">
         <v>4</v>
@@ -3145,7 +3163,7 @@
       <c r="AG18">
         <v>0</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AH18" s="17">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="AI18" s="9">
@@ -3155,7 +3173,7 @@
         <v>45064</v>
       </c>
       <c r="AL18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM18" s="8">
         <v>1.5E-3</v>
@@ -3166,7 +3184,7 @@
         <v>45107</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -3210,50 +3228,50 @@
       <c r="P19">
         <v>23.2</v>
       </c>
-      <c r="Q19" t="s">
-        <v>76</v>
-      </c>
-      <c r="R19" t="s">
-        <v>76</v>
+      <c r="Q19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE19" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF19">
         <v>0.87</v>
@@ -3261,7 +3279,7 @@
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AH19" s="8">
+      <c r="AH19" s="17">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="AI19" s="9">
@@ -3271,7 +3289,7 @@
         <v>44915</v>
       </c>
       <c r="AL19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM19" s="8">
         <v>3.0000000000000001E-3</v>
@@ -3282,7 +3300,7 @@
         <v>45107</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -3326,50 +3344,50 @@
       <c r="P20">
         <v>32.53</v>
       </c>
-      <c r="Q20" t="s">
-        <v>76</v>
-      </c>
-      <c r="R20" t="s">
-        <v>76</v>
+      <c r="Q20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF20">
         <v>2.1</v>
@@ -3377,7 +3395,7 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AH20" s="17">
         <v>8.1299999999999997E-2</v>
       </c>
       <c r="AI20" s="9">
@@ -3387,7 +3405,7 @@
         <v>44887</v>
       </c>
       <c r="AL20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM20" s="8">
         <v>3.0000000000000001E-3</v>
@@ -3398,7 +3416,7 @@
         <v>45107</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -3442,50 +3460,50 @@
       <c r="P21">
         <v>86.7</v>
       </c>
-      <c r="Q21" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" t="s">
-        <v>76</v>
+      <c r="Q21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA21" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF21">
         <v>2.68</v>
@@ -3493,7 +3511,7 @@
       <c r="AG21">
         <v>0</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="17">
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="AI21" s="9">
@@ -3503,7 +3521,7 @@
         <v>44886</v>
       </c>
       <c r="AL21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM21" s="8">
         <v>3.2000000000000002E-3</v>
@@ -3514,7 +3532,7 @@
         <v>45107</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -3558,50 +3576,50 @@
       <c r="P22">
         <v>74.650000000000006</v>
       </c>
-      <c r="Q22" t="s">
-        <v>76</v>
-      </c>
-      <c r="R22" t="s">
-        <v>76</v>
+      <c r="Q22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF22">
         <v>1.03</v>
@@ -3609,7 +3627,7 @@
       <c r="AG22">
         <v>0</v>
       </c>
-      <c r="AH22" s="8">
+      <c r="AH22" s="17">
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="AI22" s="9">
@@ -3619,7 +3637,7 @@
         <v>44914</v>
       </c>
       <c r="AL22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM22" s="8">
         <v>1.5E-3</v>
@@ -3630,7 +3648,7 @@
         <v>45107</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -3674,50 +3692,50 @@
       <c r="P23">
         <v>31.88</v>
       </c>
-      <c r="Q23" t="s">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s">
-        <v>76</v>
+      <c r="Q23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF23">
         <v>0.28999999999999998</v>
@@ -3725,7 +3743,7 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23" s="8">
+      <c r="AH23" s="17">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="AI23" s="9">
@@ -3735,7 +3753,7 @@
         <v>45089</v>
       </c>
       <c r="AL23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM23" s="8">
         <v>1.4E-3</v>
@@ -3746,7 +3764,7 @@
         <v>45107</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -3790,50 +3808,50 @@
       <c r="P24">
         <v>27.46</v>
       </c>
-      <c r="Q24" t="s">
-        <v>76</v>
-      </c>
-      <c r="R24" t="s">
-        <v>76</v>
+      <c r="Q24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE24" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF24">
         <v>1.5</v>
@@ -3841,7 +3859,7 @@
       <c r="AG24">
         <v>0</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AH24" s="17">
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="AI24" s="9">
@@ -3851,7 +3869,7 @@
         <v>45091</v>
       </c>
       <c r="AL24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM24" s="8">
         <v>3.2000000000000002E-3</v>
@@ -3862,7 +3880,7 @@
         <v>45107</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -3906,50 +3924,50 @@
       <c r="P25">
         <v>32.369999999999997</v>
       </c>
-      <c r="Q25" t="s">
-        <v>76</v>
-      </c>
-      <c r="R25" t="s">
-        <v>76</v>
+      <c r="Q25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE25" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF25">
         <v>0.55000000000000004</v>
@@ -3957,7 +3975,7 @@
       <c r="AG25">
         <v>0</v>
       </c>
-      <c r="AH25" s="8">
+      <c r="AH25" s="17">
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="AI25" s="9">
@@ -3967,7 +3985,7 @@
         <v>44914</v>
       </c>
       <c r="AL25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM25" s="8">
         <v>1.5E-3</v>
@@ -3978,7 +3996,7 @@
         <v>45107</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -4022,50 +4040,50 @@
       <c r="P26">
         <v>24.99</v>
       </c>
-      <c r="Q26" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" t="s">
-        <v>76</v>
+      <c r="Q26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA26" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE26" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF26">
         <v>0.66</v>
@@ -4073,7 +4091,7 @@
       <c r="AG26">
         <v>0</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AH26" s="17">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="AI26" s="9">
@@ -4083,7 +4101,7 @@
         <v>44987</v>
       </c>
       <c r="AL26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM26" s="8">
         <v>3.0000000000000001E-3</v>
@@ -4094,7 +4112,7 @@
         <v>45107</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -4138,50 +4156,50 @@
       <c r="P27">
         <v>9.75</v>
       </c>
-      <c r="Q27" t="s">
-        <v>76</v>
-      </c>
-      <c r="R27" t="s">
-        <v>76</v>
+      <c r="Q27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA27" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE27" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF27">
         <v>0.27</v>
@@ -4189,7 +4207,7 @@
       <c r="AG27">
         <v>0</v>
       </c>
-      <c r="AH27" s="8">
+      <c r="AH27" s="17">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="AI27" s="9">
@@ -4199,7 +4217,7 @@
         <v>45121</v>
       </c>
       <c r="AL27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM27" s="8">
         <v>2.5000000000000001E-3</v>
@@ -4210,7 +4228,7 @@
         <v>45107</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -4254,50 +4272,50 @@
       <c r="P28">
         <v>45.39</v>
       </c>
-      <c r="Q28" t="s">
-        <v>76</v>
-      </c>
-      <c r="R28" t="s">
-        <v>76</v>
+      <c r="Q28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE28" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF28">
         <v>0.68</v>
@@ -4305,7 +4323,7 @@
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28" s="8">
+      <c r="AH28" s="17">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="AI28" s="9">
@@ -4315,7 +4333,7 @@
         <v>45121</v>
       </c>
       <c r="AL28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM28" s="8">
         <v>3.0000000000000001E-3</v>
@@ -4326,7 +4344,7 @@
         <v>45107</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -4370,50 +4388,50 @@
       <c r="P29">
         <v>24.65</v>
       </c>
-      <c r="Q29" t="s">
-        <v>76</v>
-      </c>
-      <c r="R29" t="s">
-        <v>76</v>
+      <c r="Q29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z29" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF29">
         <v>0.93</v>
@@ -4421,7 +4439,7 @@
       <c r="AG29">
         <v>0</v>
       </c>
-      <c r="AH29" s="8">
+      <c r="AH29" s="17">
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="AI29" s="9">
@@ -4431,7 +4449,7 @@
         <v>44991</v>
       </c>
       <c r="AL29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM29" s="8">
         <v>4.0000000000000001E-3</v>
@@ -4442,7 +4460,7 @@
         <v>45107</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -4486,50 +4504,50 @@
       <c r="P30">
         <v>18.88</v>
       </c>
-      <c r="Q30" t="s">
-        <v>76</v>
-      </c>
-      <c r="R30" t="s">
-        <v>76</v>
+      <c r="Q30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE30" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF30">
         <v>1.08</v>
@@ -4537,7 +4555,7 @@
       <c r="AG30">
         <v>0</v>
       </c>
-      <c r="AH30" s="8">
+      <c r="AH30" s="17">
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="AI30" s="9">
@@ -4547,7 +4565,7 @@
         <v>44886</v>
       </c>
       <c r="AL30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM30" s="8">
         <v>3.0000000000000001E-3</v>
@@ -4558,7 +4576,7 @@
         <v>45107</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -4602,50 +4620,50 @@
       <c r="P31">
         <v>62.85</v>
       </c>
-      <c r="Q31" t="s">
-        <v>76</v>
-      </c>
-      <c r="R31" t="s">
-        <v>76</v>
+      <c r="Q31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z31" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE31" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF31">
         <v>2.8</v>
@@ -4653,7 +4671,7 @@
       <c r="AG31">
         <v>0</v>
       </c>
-      <c r="AH31" s="8">
+      <c r="AH31" s="17">
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="AI31" s="9">
@@ -4663,7 +4681,7 @@
         <v>44909</v>
       </c>
       <c r="AL31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM31" s="8">
         <v>3.0000000000000001E-3</v>
@@ -4674,7 +4692,7 @@
         <v>45107</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -4718,50 +4736,50 @@
       <c r="P32">
         <v>34.869999999999997</v>
       </c>
-      <c r="Q32" t="s">
-        <v>76</v>
-      </c>
-      <c r="R32" t="s">
-        <v>76</v>
+      <c r="Q32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF32">
         <v>0.44</v>
@@ -4769,7 +4787,7 @@
       <c r="AG32">
         <v>0</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH32" s="17">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="AI32" s="9">
@@ -4779,7 +4797,7 @@
         <v>45121</v>
       </c>
       <c r="AL32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM32" s="8">
         <v>1.8E-3</v>
@@ -4790,7 +4808,7 @@
         <v>45107</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
@@ -4834,50 +4852,50 @@
       <c r="P33">
         <v>34.15</v>
       </c>
-      <c r="Q33" t="s">
-        <v>76</v>
-      </c>
-      <c r="R33" t="s">
-        <v>76</v>
+      <c r="Q33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y33" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE33" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF33">
         <v>2.8</v>
@@ -4885,7 +4903,7 @@
       <c r="AG33">
         <v>0</v>
       </c>
-      <c r="AH33" s="8">
+      <c r="AH33" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="AI33" s="9">
@@ -4895,7 +4913,7 @@
         <v>44987</v>
       </c>
       <c r="AL33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM33" s="8">
         <v>2E-3</v>
@@ -4906,7 +4924,7 @@
         <v>45107</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -4950,50 +4968,50 @@
       <c r="P34">
         <v>35.71</v>
       </c>
-      <c r="Q34" t="s">
-        <v>76</v>
-      </c>
-      <c r="R34" t="s">
-        <v>76</v>
+      <c r="Q34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE34" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF34">
         <v>0.12</v>
@@ -5001,7 +5019,7 @@
       <c r="AG34">
         <v>0</v>
       </c>
-      <c r="AH34" s="8">
+      <c r="AH34" s="17">
         <v>3.3E-3</v>
       </c>
       <c r="AI34" s="9">
@@ -5011,7 +5029,7 @@
         <v>45121</v>
       </c>
       <c r="AL34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -5019,7 +5037,7 @@
         <v>45107</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -5063,50 +5081,50 @@
       <c r="P35">
         <v>35.869999999999997</v>
       </c>
-      <c r="Q35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R35" t="s">
-        <v>76</v>
+      <c r="Q35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE35" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF35">
         <v>0.13</v>
@@ -5114,7 +5132,7 @@
       <c r="AG35">
         <v>0</v>
       </c>
-      <c r="AH35" s="8">
+      <c r="AH35" s="17">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="AI35" s="9">
@@ -5124,7 +5142,7 @@
         <v>45121</v>
       </c>
       <c r="AL35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
@@ -5132,10 +5150,10 @@
         <v>45107</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D36">
         <v>32.71</v>
@@ -5176,50 +5194,50 @@
       <c r="P36">
         <v>32.799999999999997</v>
       </c>
-      <c r="Q36" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" t="s">
-        <v>76</v>
+      <c r="Q36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z36" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF36">
         <v>0.12</v>
@@ -5227,7 +5245,7 @@
       <c r="AG36">
         <v>0</v>
       </c>
-      <c r="AH36" s="8">
+      <c r="AH36" s="17">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="AI36" s="9">
@@ -5237,7 +5255,7 @@
         <v>44987</v>
       </c>
       <c r="AL36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM36" s="8">
         <v>3.5000000000000001E-3</v>
@@ -5248,7 +5266,7 @@
         <v>45107</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -5292,50 +5310,50 @@
       <c r="P37">
         <v>33.770000000000003</v>
       </c>
-      <c r="Q37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R37" t="s">
-        <v>76</v>
+      <c r="Q37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y37" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF37">
         <v>1.48</v>
@@ -5343,7 +5361,7 @@
       <c r="AG37">
         <v>0</v>
       </c>
-      <c r="AH37" s="8">
+      <c r="AH37" s="17">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="AI37" s="9">
@@ -5353,7 +5371,7 @@
         <v>44915</v>
       </c>
       <c r="AL37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM37" s="8">
         <v>3.0000000000000001E-3</v>
@@ -5364,10 +5382,10 @@
         <v>45107</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>19.2</v>
@@ -5408,50 +5426,50 @@
       <c r="P38">
         <v>19.2</v>
       </c>
-      <c r="Q38" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" t="s">
-        <v>76</v>
+      <c r="Q38" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y38" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF38">
         <v>0.27</v>
@@ -5459,7 +5477,7 @@
       <c r="AG38">
         <v>0</v>
       </c>
-      <c r="AH38" s="8">
+      <c r="AH38" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AI38" s="9">
@@ -5469,7 +5487,7 @@
         <v>45089</v>
       </c>
       <c r="AL38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM38" s="8">
         <v>2.5000000000000001E-3</v>
@@ -5480,10 +5498,10 @@
         <v>45107</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D39">
         <v>16.78</v>
@@ -5524,50 +5542,50 @@
       <c r="P39">
         <v>16.760000000000002</v>
       </c>
-      <c r="Q39" t="s">
-        <v>76</v>
-      </c>
-      <c r="R39" t="s">
-        <v>76</v>
+      <c r="Q39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE39" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF39">
         <v>0.35</v>
@@ -5575,7 +5593,7 @@
       <c r="AG39">
         <v>0</v>
       </c>
-      <c r="AH39" s="8">
+      <c r="AH39" s="17">
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="AI39" s="9">
@@ -5585,7 +5603,7 @@
         <v>44987</v>
       </c>
       <c r="AL39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM39" s="8">
         <v>4.0000000000000001E-3</v>
@@ -5596,10 +5614,10 @@
         <v>45107</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D40">
         <v>14.16</v>
@@ -5640,50 +5658,50 @@
       <c r="P40">
         <v>14.16</v>
       </c>
-      <c r="Q40" t="s">
-        <v>76</v>
-      </c>
-      <c r="R40" t="s">
-        <v>76</v>
+      <c r="Q40" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF40">
         <v>0.21</v>
@@ -5691,7 +5709,7 @@
       <c r="AG40">
         <v>0</v>
       </c>
-      <c r="AH40" s="8">
+      <c r="AH40" s="17">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="AI40" s="9">
@@ -5701,7 +5719,7 @@
         <v>45068</v>
       </c>
       <c r="AL40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM40" s="8">
         <v>2.5000000000000001E-3</v>
@@ -5712,10 +5730,10 @@
         <v>45107</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D41">
         <v>12.67</v>
@@ -5756,50 +5774,50 @@
       <c r="P41">
         <v>12.71</v>
       </c>
-      <c r="Q41" t="s">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s">
-        <v>76</v>
+      <c r="Q41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y41" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA41" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE41" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF41">
         <v>0.35</v>
@@ -5807,7 +5825,7 @@
       <c r="AG41">
         <v>0</v>
       </c>
-      <c r="AH41" s="8">
+      <c r="AH41" s="17">
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="AI41" s="9">
@@ -5817,7 +5835,7 @@
         <v>44914</v>
       </c>
       <c r="AL41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM41" s="8">
         <v>4.0000000000000001E-3</v>
@@ -5828,10 +5846,10 @@
         <v>45107</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D42">
         <v>14.64</v>
@@ -5872,50 +5890,50 @@
       <c r="P42">
         <v>14.6</v>
       </c>
-      <c r="Q42" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" t="s">
-        <v>76</v>
+      <c r="Q42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA42" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE42" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF42">
         <v>7.0000000000000007E-2</v>
@@ -5923,7 +5941,7 @@
       <c r="AG42">
         <v>0</v>
       </c>
-      <c r="AH42" s="8">
+      <c r="AH42" s="17">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="AI42" s="9">
@@ -5933,7 +5951,7 @@
         <v>45121</v>
       </c>
       <c r="AL42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM42" s="8">
         <v>4.0000000000000001E-3</v>
@@ -5944,10 +5962,10 @@
         <v>45107</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>15.9</v>
@@ -5988,50 +6006,50 @@
       <c r="P43">
         <v>16.03</v>
       </c>
-      <c r="Q43" t="s">
-        <v>76</v>
-      </c>
-      <c r="R43" t="s">
-        <v>76</v>
+      <c r="Q43" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="S43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X43" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="Y43" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Z43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AA43" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AB43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AD43" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE43" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AF43">
         <v>0.18</v>
@@ -6039,7 +6057,7 @@
       <c r="AG43">
         <v>0</v>
       </c>
-      <c r="AH43" s="8">
+      <c r="AH43" s="17">
         <v>1.15E-2</v>
       </c>
       <c r="AI43" s="9">
@@ -6049,7 +6067,7 @@
         <v>45092</v>
       </c>
       <c r="AL43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM43" s="8">
         <v>5.4999999999999997E-3</v>
@@ -6083,7 +6101,7 @@
       <c r="B52" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7579,7 +7597,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B611CC-066E-4F1A-B186-87A89FF73625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467744E-F594-4FAA-BECA-5D6989171725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="150">
   <si>
     <t>代碼</t>
   </si>
@@ -532,30 +532,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>國泰永續高股息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>國泰台灣5G+</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>永豐台灣ESG</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>富邦台灣半導體</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>永豐優息存股</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>元大US高息特別股</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>盈餘 -年</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -569,6 +545,10 @@
   </si>
   <si>
     <t>PB(市淨率)-月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -733,14 +713,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1048,8 +1023,8 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF15" sqref="AF15"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1058,32 +1033,26 @@
     <col min="2" max="2" width="10.375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.5" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.25" bestFit="1" customWidth="1"/>
@@ -1092,6 +1061,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,10 +1110,10 @@
         <v>52</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>53</v>
@@ -1162,12 +1134,12 @@
         <v>58</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="6" t="s">
         <v>60</v>
       </c>
       <c r="AB1" s="7" t="s">
@@ -1176,10 +1148,10 @@
       <c r="AC1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AF1" s="7" t="s">
@@ -1189,7 +1161,7 @@
         <v>66</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>67</v>
@@ -1209,7 +1181,7 @@
     </row>
     <row r="2" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>88</v>
@@ -1221,28 +1193,28 @@
         <v>144.5</v>
       </c>
       <c r="E2">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="F2" s="5">
         <v>146.5</v>
       </c>
       <c r="G2" s="5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M2">
         <v>147.5</v>
@@ -1251,16 +1223,16 @@
         <v>146.5</v>
       </c>
       <c r="O2">
-        <v>147.5</v>
+        <v>146.5</v>
       </c>
       <c r="P2">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>21.46</v>
-      </c>
-      <c r="R2" s="15">
-        <v>4.28</v>
+        <v>146.5</v>
+      </c>
+      <c r="Q2">
+        <v>21.39</v>
+      </c>
+      <c r="R2">
+        <v>4.26</v>
       </c>
       <c r="S2" s="8">
         <v>6.5699999999999995E-2</v>
@@ -1280,13 +1252,13 @@
       <c r="X2" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2">
         <v>7.66</v>
       </c>
       <c r="Z2" s="8">
         <v>3.8532000000000002</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="8">
         <v>1.9886999999999999</v>
       </c>
       <c r="AB2" s="8">
@@ -1295,10 +1267,10 @@
       <c r="AC2">
         <v>173.78</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2">
         <v>15.89</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AE2">
         <v>53.32</v>
       </c>
       <c r="AF2">
@@ -1307,7 +1279,7 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AH2" s="17">
+      <c r="AH2" s="8">
         <v>3.95E-2</v>
       </c>
       <c r="AI2" s="9">
@@ -1316,6 +1288,9 @@
       <c r="AJ2" s="9">
         <v>45121</v>
       </c>
+      <c r="AK2" t="s">
+        <v>72</v>
+      </c>
       <c r="AL2" s="8">
         <v>4.2700000000000002E-2</v>
       </c>
@@ -1325,7 +1300,7 @@
     </row>
     <row r="3" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>89</v>
@@ -1334,49 +1309,49 @@
         <v>131</v>
       </c>
       <c r="D3">
-        <v>39.9</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>40.35</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="F3" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-0.94999999999999574</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-2.37</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>459</v>
+      </c>
+      <c r="K3">
+        <v>156</v>
+      </c>
+      <c r="L3">
+        <v>8388</v>
+      </c>
+      <c r="M3">
+        <v>40.6</v>
+      </c>
+      <c r="N3">
+        <v>39.15</v>
+      </c>
+      <c r="O3">
+        <v>40.4</v>
+      </c>
+      <c r="P3">
         <v>40.15</v>
       </c>
-      <c r="G3" s="5">
-        <v>-0.95000000000000284</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-2.31</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1184</v>
-      </c>
-      <c r="J3">
-        <v>251</v>
-      </c>
-      <c r="K3">
-        <v>164</v>
-      </c>
-      <c r="L3">
-        <v>7702</v>
-      </c>
-      <c r="M3">
-        <v>41</v>
-      </c>
-      <c r="N3">
-        <v>40</v>
-      </c>
-      <c r="O3">
-        <v>40.9</v>
-      </c>
-      <c r="P3">
-        <v>41.1</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>25.85</v>
-      </c>
-      <c r="R3" s="15">
-        <v>1.64</v>
+      <c r="Q3">
+        <v>25.25</v>
+      </c>
+      <c r="R3">
+        <v>1.6</v>
       </c>
       <c r="S3" s="8">
         <v>1.9E-2</v>
@@ -1396,13 +1371,13 @@
       <c r="X3" t="s">
         <v>74</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3">
         <v>1.53</v>
       </c>
       <c r="Z3" s="8">
         <v>1.9121999999999999</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="8">
         <v>1.2726</v>
       </c>
       <c r="AB3" s="8">
@@ -1411,10 +1386,10 @@
       <c r="AC3">
         <v>8.2799999999999994</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3">
         <v>38.89</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3">
         <v>97.91</v>
       </c>
       <c r="AF3">
@@ -1423,7 +1398,7 @@
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AH3" s="8">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="AI3" s="9">
@@ -1432,6 +1407,9 @@
       <c r="AJ3" s="9">
         <v>45114</v>
       </c>
+      <c r="AK3" t="s">
+        <v>72</v>
+      </c>
       <c r="AL3" s="8">
         <v>-1.4626999999999999</v>
       </c>
@@ -1441,7 +1419,7 @@
     </row>
     <row r="4" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>90</v>
@@ -1450,49 +1428,49 @@
         <v>132</v>
       </c>
       <c r="D4">
-        <v>342.5</v>
+        <v>361.5</v>
       </c>
       <c r="E4">
+        <v>366</v>
+      </c>
+      <c r="F4" s="5">
+        <v>363</v>
+      </c>
+      <c r="G4" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>151</v>
+      </c>
+      <c r="L4">
+        <v>11473</v>
+      </c>
+      <c r="M4">
+        <v>365.5</v>
+      </c>
+      <c r="N4">
+        <v>345</v>
+      </c>
+      <c r="O4">
         <v>347</v>
       </c>
-      <c r="F4" s="5">
+      <c r="P4">
         <v>344.5</v>
       </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.47</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1491</v>
-      </c>
-      <c r="J4">
-        <v>199</v>
-      </c>
-      <c r="K4">
-        <v>173</v>
-      </c>
-      <c r="L4">
-        <v>7751</v>
-      </c>
-      <c r="M4">
-        <v>345</v>
-      </c>
-      <c r="N4">
-        <v>339.5</v>
-      </c>
-      <c r="O4">
-        <v>340.5</v>
-      </c>
-      <c r="P4">
-        <v>339.5</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>27.09</v>
-      </c>
-      <c r="R4" s="15">
-        <v>4.7</v>
+      <c r="Q4">
+        <v>26.71</v>
+      </c>
+      <c r="R4">
+        <v>4.63</v>
       </c>
       <c r="S4" s="8">
         <v>3.4700000000000002E-2</v>
@@ -1512,13 +1490,13 @@
       <c r="X4" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4">
         <v>12.58</v>
       </c>
       <c r="Z4" s="8">
         <v>2.0339</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="8">
         <v>1.3468</v>
       </c>
       <c r="AB4" s="8">
@@ -1527,10 +1505,10 @@
       <c r="AC4">
         <v>40.229999999999997</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4">
         <v>76.5</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4">
         <v>107.25</v>
       </c>
       <c r="AF4">
@@ -1539,7 +1517,7 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4" s="17">
+      <c r="AH4" s="8">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="AI4" s="9">
@@ -1548,6 +1526,9 @@
       <c r="AJ4" s="9">
         <v>45135</v>
       </c>
+      <c r="AK4" t="s">
+        <v>72</v>
+      </c>
       <c r="AL4" s="8">
         <v>0.25390000000000001</v>
       </c>
@@ -1557,7 +1538,7 @@
     </row>
     <row r="5" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>91</v>
@@ -1566,48 +1547,48 @@
         <v>133</v>
       </c>
       <c r="D5">
-        <v>110.5</v>
+        <v>112.5</v>
       </c>
       <c r="E5">
+        <v>117</v>
+      </c>
+      <c r="F5" s="5">
+        <v>114.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4971</v>
+      </c>
+      <c r="K5">
+        <v>2274</v>
+      </c>
+      <c r="L5">
+        <v>47919</v>
+      </c>
+      <c r="M5">
         <v>115</v>
       </c>
-      <c r="F5" s="5">
-        <v>113</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>6259</v>
-      </c>
-      <c r="J5">
-        <v>1876</v>
-      </c>
-      <c r="K5">
-        <v>3441</v>
-      </c>
-      <c r="L5">
-        <v>47988</v>
-      </c>
-      <c r="M5">
-        <v>113</v>
-      </c>
       <c r="N5">
-        <v>111</v>
+        <v>113.5</v>
       </c>
       <c r="O5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P5">
         <v>113</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5">
         <v>12.54</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5">
         <v>1.1200000000000001</v>
       </c>
       <c r="S5" s="8">
@@ -1628,13 +1609,13 @@
       <c r="X5" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5">
         <v>10.210000000000001</v>
       </c>
       <c r="Z5" s="8">
         <v>1.5947</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="8">
         <v>1.1248</v>
       </c>
       <c r="AB5" s="8">
@@ -1643,10 +1624,10 @@
       <c r="AC5">
         <v>2.4</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5">
         <v>55.46</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5">
         <v>57.38</v>
       </c>
       <c r="AF5">
@@ -1655,7 +1636,7 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5" s="17">
+      <c r="AH5" s="8">
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="AI5" s="9">
@@ -1664,6 +1645,9 @@
       <c r="AJ5" s="9">
         <v>45135</v>
       </c>
+      <c r="AK5" t="s">
+        <v>72</v>
+      </c>
       <c r="AL5" s="8">
         <v>0.25950000000000001</v>
       </c>
@@ -1673,7 +1657,7 @@
     </row>
     <row r="6" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>92</v>
@@ -1682,49 +1666,49 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="E6">
-        <v>29.45</v>
+        <v>29.85</v>
       </c>
       <c r="F6" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>672</v>
+      </c>
+      <c r="K6">
+        <v>263</v>
+      </c>
+      <c r="L6">
+        <v>12998</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>29.2</v>
+      </c>
+      <c r="O6">
         <v>29.25</v>
       </c>
-      <c r="G6" s="5">
-        <v>-0.25</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-0.85</v>
-      </c>
-      <c r="I6" s="5">
-        <v>6389</v>
-      </c>
-      <c r="J6">
-        <v>96</v>
-      </c>
-      <c r="K6">
-        <v>83</v>
-      </c>
-      <c r="L6">
-        <v>24525</v>
-      </c>
-      <c r="M6">
-        <v>29.4</v>
-      </c>
-      <c r="N6">
-        <v>28.85</v>
-      </c>
-      <c r="O6">
-        <v>29.3</v>
-      </c>
       <c r="P6">
-        <v>29.5</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="R6" s="15">
-        <v>1.1499999999999999</v>
+        <v>29.25</v>
+      </c>
+      <c r="Q6">
+        <v>19.5</v>
+      </c>
+      <c r="R6">
+        <v>1.1399999999999999</v>
       </c>
       <c r="S6" s="8">
         <v>1.35E-2</v>
@@ -1744,13 +1728,13 @@
       <c r="X6" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6">
         <v>1.67</v>
       </c>
       <c r="Z6" s="8">
         <v>1.2763</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="8">
         <v>0.88519999999999999</v>
       </c>
       <c r="AB6" s="8">
@@ -1759,10 +1743,10 @@
       <c r="AC6">
         <v>2.93</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6">
         <v>78.42</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6">
         <v>51.63</v>
       </c>
       <c r="AF6">
@@ -1771,7 +1755,7 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6" s="17">
+      <c r="AH6" s="8">
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="AI6" s="9">
@@ -1780,6 +1764,9 @@
       <c r="AJ6" s="9">
         <v>45065</v>
       </c>
+      <c r="AK6" t="s">
+        <v>72</v>
+      </c>
       <c r="AL6" s="8">
         <v>0.2291</v>
       </c>
@@ -1789,7 +1776,7 @@
     </row>
     <row r="7" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>93</v>
@@ -1798,49 +1785,49 @@
         <v>134</v>
       </c>
       <c r="D7">
-        <v>111.5</v>
+        <v>111</v>
       </c>
       <c r="E7">
-        <v>116</v>
+        <v>115.5</v>
       </c>
       <c r="F7" s="5">
+        <v>113</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-0.88</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>506</v>
+      </c>
+      <c r="M7">
         <v>114</v>
       </c>
-      <c r="G7" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-0.44</v>
-      </c>
-      <c r="I7" s="5">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>44</v>
-      </c>
-      <c r="K7">
-        <v>39</v>
-      </c>
-      <c r="L7">
-        <v>220</v>
-      </c>
-      <c r="M7">
-        <v>114.5</v>
-      </c>
       <c r="N7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O7">
         <v>114</v>
       </c>
       <c r="P7">
-        <v>114.5</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>15.95</v>
-      </c>
-      <c r="R7" s="15">
-        <v>4.5199999999999996</v>
+        <v>114</v>
+      </c>
+      <c r="Q7">
+        <v>15.88</v>
+      </c>
+      <c r="R7">
+        <v>4.5</v>
       </c>
       <c r="S7" s="8">
         <v>7.2700000000000001E-2</v>
@@ -1860,13 +1847,13 @@
       <c r="X7" t="s">
         <v>78</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7">
         <v>6.91</v>
       </c>
       <c r="Z7" s="8">
         <v>1.5374000000000001</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="8">
         <v>0.86370000000000002</v>
       </c>
       <c r="AB7" s="8">
@@ -1875,10 +1862,10 @@
       <c r="AC7">
         <v>572.54</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7">
         <v>28.64</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE7">
         <v>179.44</v>
       </c>
       <c r="AF7">
@@ -1887,7 +1874,7 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7" s="17">
+      <c r="AH7" s="8">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="AI7" s="9">
@@ -1896,6 +1883,9 @@
       <c r="AJ7" s="9">
         <v>45121</v>
       </c>
+      <c r="AK7" t="s">
+        <v>72</v>
+      </c>
       <c r="AL7" s="8">
         <v>-8.6999999999999994E-3</v>
       </c>
@@ -1905,7 +1895,7 @@
     </row>
     <row r="8" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>94</v>
@@ -1914,49 +1904,49 @@
         <v>135</v>
       </c>
       <c r="D8">
-        <v>280.5</v>
+        <v>281.5</v>
       </c>
       <c r="E8">
+        <v>286</v>
+      </c>
+      <c r="F8" s="5">
+        <v>283.5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>49</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>338</v>
+      </c>
+      <c r="M8">
         <v>285</v>
       </c>
-      <c r="F8" s="5">
+      <c r="N8">
+        <v>283</v>
+      </c>
+      <c r="O8">
+        <v>283</v>
+      </c>
+      <c r="P8">
         <v>282.5</v>
       </c>
-      <c r="G8" s="5">
-        <v>-3.5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-1.22</v>
-      </c>
-      <c r="I8" s="5">
-        <v>415</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>1302</v>
-      </c>
-      <c r="M8">
-        <v>285.5</v>
-      </c>
-      <c r="N8">
-        <v>282.5</v>
-      </c>
-      <c r="O8">
-        <v>284.5</v>
-      </c>
-      <c r="P8">
-        <v>286</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>29.95</v>
-      </c>
-      <c r="R8" s="15">
-        <v>7.59</v>
+      <c r="Q8">
+        <v>29.58</v>
+      </c>
+      <c r="R8">
+        <v>7.5</v>
       </c>
       <c r="S8" s="8">
         <v>6.8900000000000003E-2</v>
@@ -1976,13 +1966,13 @@
       <c r="X8" t="s">
         <v>79</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8">
         <v>8.93</v>
       </c>
       <c r="Z8" s="8">
         <v>0.88239999999999996</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="8">
         <v>0.65439999999999998</v>
       </c>
       <c r="AB8" s="8">
@@ -1991,10 +1981,10 @@
       <c r="AC8">
         <v>13.72</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8">
         <v>7.42</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8">
         <v>38.06</v>
       </c>
       <c r="AF8">
@@ -2003,7 +1993,7 @@
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AH8" s="17">
+      <c r="AH8" s="8">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="AI8" s="9">
@@ -2012,6 +2002,9 @@
       <c r="AJ8" s="9">
         <v>45175</v>
       </c>
+      <c r="AK8" t="s">
+        <v>72</v>
+      </c>
       <c r="AL8" s="8">
         <v>0.217</v>
       </c>
@@ -2021,7 +2014,7 @@
     </row>
     <row r="9" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>95</v>
@@ -2030,49 +2023,49 @@
         <v>136</v>
       </c>
       <c r="D9">
-        <v>95.2</v>
+        <v>94.6</v>
       </c>
       <c r="E9">
-        <v>96.2</v>
+        <v>95.6</v>
       </c>
       <c r="F9" s="5">
+        <v>95.1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-0.52</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>124</v>
+      </c>
+      <c r="K9">
+        <v>146</v>
+      </c>
+      <c r="L9">
+        <v>4149</v>
+      </c>
+      <c r="M9">
+        <v>96.1</v>
+      </c>
+      <c r="N9">
+        <v>95</v>
+      </c>
+      <c r="O9">
+        <v>95.8</v>
+      </c>
+      <c r="P9">
         <v>95.6</v>
       </c>
-      <c r="G9" s="5">
-        <v>-0.60000000000000853</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-0.62</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1385</v>
-      </c>
-      <c r="J9">
-        <v>139</v>
-      </c>
-      <c r="K9">
-        <v>96</v>
-      </c>
-      <c r="L9">
-        <v>9941</v>
-      </c>
-      <c r="M9">
-        <v>97.1</v>
-      </c>
-      <c r="N9">
-        <v>95.6</v>
-      </c>
-      <c r="O9">
-        <v>96.3</v>
-      </c>
-      <c r="P9">
-        <v>96.2</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>25.7</v>
-      </c>
-      <c r="R9" s="15">
-        <v>4.21</v>
+      <c r="Q9">
+        <v>24.45</v>
+      </c>
+      <c r="R9">
+        <v>4.01</v>
       </c>
       <c r="S9" s="8">
         <v>4.3200000000000002E-2</v>
@@ -2092,13 +2085,13 @@
       <c r="X9" t="s">
         <v>80</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9">
         <v>3.91</v>
       </c>
       <c r="Z9" s="8">
         <v>0.62939999999999996</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="8">
         <v>0.50649999999999995</v>
       </c>
       <c r="AB9" s="8">
@@ -2107,10 +2100,10 @@
       <c r="AC9">
         <v>18.579999999999998</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AD9">
         <v>17.28</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9">
         <v>20.8</v>
       </c>
       <c r="AF9">
@@ -2119,7 +2112,7 @@
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9" s="17">
+      <c r="AH9" s="8">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="AI9" s="9">
@@ -2128,6 +2121,9 @@
       <c r="AJ9" s="9">
         <v>45133</v>
       </c>
+      <c r="AK9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL9" s="8">
         <v>0.15409999999999999</v>
       </c>
@@ -2137,7 +2133,7 @@
     </row>
     <row r="10" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>96</v>
@@ -2146,49 +2142,49 @@
         <v>137</v>
       </c>
       <c r="D10">
-        <v>90.3</v>
+        <v>96.3</v>
       </c>
       <c r="E10">
-        <v>91.2</v>
+        <v>97.2</v>
       </c>
       <c r="F10" s="5">
+        <v>96.7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>307</v>
+      </c>
+      <c r="L10">
+        <v>90077</v>
+      </c>
+      <c r="M10">
+        <v>97.6</v>
+      </c>
+      <c r="N10">
+        <v>93.4</v>
+      </c>
+      <c r="O10">
+        <v>93.6</v>
+      </c>
+      <c r="P10">
         <v>90.8</v>
       </c>
-      <c r="G10" s="5">
-        <v>7.2000000000000028</v>
-      </c>
-      <c r="H10" s="5">
-        <v>8.61</v>
-      </c>
-      <c r="I10" s="5">
-        <v>6324</v>
-      </c>
-      <c r="J10">
-        <v>951</v>
-      </c>
-      <c r="K10">
-        <v>76</v>
-      </c>
-      <c r="L10">
-        <v>156885</v>
-      </c>
-      <c r="M10">
-        <v>91</v>
-      </c>
-      <c r="N10">
-        <v>84.3</v>
-      </c>
-      <c r="O10">
-        <v>84.5</v>
-      </c>
-      <c r="P10">
-        <v>83.6</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>19.53</v>
-      </c>
-      <c r="R10" s="15">
-        <v>2.46</v>
+      <c r="Q10">
+        <v>21.21</v>
+      </c>
+      <c r="R10">
+        <v>2.67</v>
       </c>
       <c r="S10" s="8">
         <v>1.6899999999999998E-2</v>
@@ -2208,13 +2204,13 @@
       <c r="X10" t="s">
         <v>81</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10">
         <v>4.01</v>
       </c>
       <c r="Z10" s="8">
         <v>1.1720999999999999</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="8">
         <v>0.65139999999999998</v>
       </c>
       <c r="AB10" s="8">
@@ -2223,10 +2219,10 @@
       <c r="AC10">
         <v>2.15</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AD10">
         <v>43.09</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AE10">
         <v>69.56</v>
       </c>
       <c r="AF10">
@@ -2235,8 +2231,8 @@
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AH10" s="17">
-        <v>3.1099999999999999E-2</v>
+      <c r="AH10" s="8">
+        <v>2.86E-2</v>
       </c>
       <c r="AI10" s="9">
         <v>45112</v>
@@ -2244,6 +2240,9 @@
       <c r="AJ10" s="9">
         <v>45135</v>
       </c>
+      <c r="AK10" t="s">
+        <v>72</v>
+      </c>
       <c r="AL10" s="8">
         <v>0.22090000000000001</v>
       </c>
@@ -2253,7 +2252,7 @@
     </row>
     <row r="11" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>97</v>
@@ -2262,49 +2261,49 @@
         <v>138</v>
       </c>
       <c r="D11">
-        <v>39.200000000000003</v>
+        <v>38.85</v>
       </c>
       <c r="E11">
-        <v>39.65</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="F11" s="5">
+        <v>39.1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-0.76</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>514</v>
+      </c>
+      <c r="M11">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="N11">
+        <v>38.85</v>
+      </c>
+      <c r="O11">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="P11">
         <v>39.4</v>
       </c>
-      <c r="G11" s="5">
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2.34</v>
-      </c>
-      <c r="I11" s="5">
-        <v>75</v>
-      </c>
-      <c r="J11">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>1769</v>
-      </c>
-      <c r="M11">
-        <v>40.25</v>
-      </c>
-      <c r="N11">
-        <v>38.15</v>
-      </c>
-      <c r="O11">
-        <v>38.5</v>
-      </c>
-      <c r="P11">
-        <v>38.5</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>62.1</v>
-      </c>
-      <c r="R11" s="15">
-        <v>1.43</v>
+      <c r="Q11">
+        <v>63.55</v>
+      </c>
+      <c r="R11">
+        <v>1.46</v>
       </c>
       <c r="S11" s="8">
         <v>2.8999999999999998E-3</v>
@@ -2324,13 +2323,13 @@
       <c r="X11" t="s">
         <v>82</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11">
         <v>1.32</v>
       </c>
       <c r="Z11" s="8">
         <v>1.7377</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="AA11" s="8">
         <v>1.5510999999999999</v>
       </c>
       <c r="AB11" s="8">
@@ -2339,10 +2338,10 @@
       <c r="AC11">
         <v>25.15</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AD11">
         <v>67.37</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AE11">
         <v>42.48</v>
       </c>
       <c r="AF11">
@@ -2351,7 +2350,7 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11" s="17">
+      <c r="AH11" s="8">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="AI11" s="9">
@@ -2360,6 +2359,9 @@
       <c r="AJ11" s="9">
         <v>45118</v>
       </c>
+      <c r="AK11" t="s">
+        <v>72</v>
+      </c>
       <c r="AL11" s="8">
         <v>0.78069999999999995</v>
       </c>
@@ -2369,7 +2371,7 @@
     </row>
     <row r="12" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>98</v>
@@ -2378,49 +2380,49 @@
         <v>139</v>
       </c>
       <c r="D12">
-        <v>108.5</v>
+        <v>108</v>
       </c>
       <c r="E12">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="F12" s="5">
+        <v>110</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-0.45</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>795</v>
+      </c>
+      <c r="K12">
+        <v>345</v>
+      </c>
+      <c r="L12">
+        <v>12223</v>
+      </c>
+      <c r="M12">
+        <v>112</v>
+      </c>
+      <c r="N12">
+        <v>109.5</v>
+      </c>
+      <c r="O12">
+        <v>111</v>
+      </c>
+      <c r="P12">
         <v>110.5</v>
       </c>
-      <c r="G12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="H12" s="5">
-        <v>-2.64</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2469</v>
-      </c>
-      <c r="J12">
-        <v>731</v>
-      </c>
-      <c r="K12">
-        <v>901</v>
-      </c>
-      <c r="L12">
-        <v>36792</v>
-      </c>
-      <c r="M12">
-        <v>113.5</v>
-      </c>
-      <c r="N12">
-        <v>109</v>
-      </c>
-      <c r="O12">
-        <v>113.5</v>
-      </c>
-      <c r="P12">
-        <v>113.5</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>9.58</v>
-      </c>
-      <c r="R12" s="15">
-        <v>1.95</v>
+      <c r="Q12">
+        <v>8.64</v>
+      </c>
+      <c r="R12">
+        <v>1.76</v>
       </c>
       <c r="S12" s="8">
         <v>0.02</v>
@@ -2440,13 +2442,13 @@
       <c r="X12" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12">
         <v>14.53</v>
       </c>
       <c r="Z12" s="8">
         <v>1.1575</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="8">
         <v>0.79200000000000004</v>
       </c>
       <c r="AB12" s="8">
@@ -2455,10 +2457,10 @@
       <c r="AC12">
         <v>6.53</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12">
         <v>70.88</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12">
         <v>72</v>
       </c>
       <c r="AF12">
@@ -2467,7 +2469,7 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12" s="17">
+      <c r="AH12" s="8">
         <v>7.1800000000000003E-2</v>
       </c>
       <c r="AI12" s="9">
@@ -2476,6 +2478,9 @@
       <c r="AJ12" s="9">
         <v>45134</v>
       </c>
+      <c r="AK12" t="s">
+        <v>72</v>
+      </c>
       <c r="AL12" s="8">
         <v>0.3322</v>
       </c>
@@ -2485,7 +2490,7 @@
     </row>
     <row r="13" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>99</v>
@@ -2494,37 +2499,37 @@
         <v>140</v>
       </c>
       <c r="D13">
-        <v>65.3</v>
+        <v>65.7</v>
       </c>
       <c r="E13">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F13" s="5">
         <v>66.2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>76</v>
+      </c>
+      <c r="K13">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>3880</v>
+      </c>
+      <c r="M13">
+        <v>66.7</v>
+      </c>
+      <c r="N13">
         <v>65.8</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>526</v>
-      </c>
-      <c r="J13">
-        <v>134</v>
-      </c>
-      <c r="K13">
-        <v>28</v>
-      </c>
-      <c r="L13">
-        <v>4805</v>
-      </c>
-      <c r="M13">
-        <v>66.8</v>
-      </c>
-      <c r="N13">
-        <v>65.3</v>
       </c>
       <c r="O13">
         <v>66.7</v>
@@ -2532,10 +2537,10 @@
       <c r="P13">
         <v>65.8</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13">
         <v>11.02</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13">
         <v>1.78</v>
       </c>
       <c r="S13" s="8">
@@ -2556,13 +2561,13 @@
       <c r="X13" t="s">
         <v>84</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13">
         <v>6.1</v>
       </c>
       <c r="Z13" s="8">
         <v>1.3709</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="8">
         <v>1.0018</v>
       </c>
       <c r="AB13" s="8">
@@ -2571,10 +2576,10 @@
       <c r="AC13">
         <v>21.4</v>
       </c>
-      <c r="AD13" s="15">
+      <c r="AD13">
         <v>84.42</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AE13">
         <v>64.8</v>
       </c>
       <c r="AF13">
@@ -2583,7 +2588,7 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13" s="17">
+      <c r="AH13" s="8">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="AI13" s="9">
@@ -2592,6 +2597,9 @@
       <c r="AJ13" s="9">
         <v>45135</v>
       </c>
+      <c r="AK13" t="s">
+        <v>72</v>
+      </c>
       <c r="AL13" s="8">
         <v>0.20619999999999999</v>
       </c>
@@ -2601,7 +2609,7 @@
     </row>
     <row r="14" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>100</v>
@@ -2610,49 +2618,49 @@
         <v>141</v>
       </c>
       <c r="D14">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
       <c r="E14">
-        <v>62.7</v>
+        <v>62.5</v>
       </c>
       <c r="F14" s="5">
         <v>62</v>
       </c>
       <c r="G14" s="5">
-        <v>-0.29999999999999716</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>-0.48</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="M14">
         <v>62.3</v>
       </c>
       <c r="N14">
-        <v>61.8</v>
+        <v>61.7</v>
       </c>
       <c r="O14">
-        <v>62.3</v>
+        <v>62.1</v>
       </c>
       <c r="P14">
-        <v>62.3</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>346.11</v>
-      </c>
-      <c r="R14" s="15">
-        <v>2.13</v>
+        <v>62</v>
+      </c>
+      <c r="Q14">
+        <v>344.44</v>
+      </c>
+      <c r="R14">
+        <v>2.12</v>
       </c>
       <c r="S14" s="8">
         <v>-6.8999999999999999E-3</v>
@@ -2672,13 +2680,13 @@
       <c r="X14" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14">
         <v>1.05</v>
       </c>
       <c r="Z14" s="8">
         <v>1.9191</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="8">
         <v>1.4209000000000001</v>
       </c>
       <c r="AB14" s="8">
@@ -2687,10 +2695,10 @@
       <c r="AC14">
         <v>0.35</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14">
         <v>67.75</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14">
         <v>129.02000000000001</v>
       </c>
       <c r="AF14">
@@ -2699,7 +2707,7 @@
       <c r="AG14">
         <v>0</v>
       </c>
-      <c r="AH14" s="17">
+      <c r="AH14" s="8">
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="AI14" s="9">
@@ -2708,6 +2716,9 @@
       <c r="AJ14" s="9">
         <v>45051</v>
       </c>
+      <c r="AK14" t="s">
+        <v>72</v>
+      </c>
       <c r="AL14" s="8">
         <v>0.34910000000000002</v>
       </c>
@@ -2717,7 +2728,7 @@
     </row>
     <row r="15" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>101</v>
@@ -2726,49 +2737,49 @@
         <v>142</v>
       </c>
       <c r="D15">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
       <c r="E15">
+        <v>55.2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>54.6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>105</v>
+      </c>
+      <c r="K15">
+        <v>103</v>
+      </c>
+      <c r="L15">
+        <v>2651</v>
+      </c>
+      <c r="M15">
         <v>55.6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="N15">
+        <v>54.5</v>
+      </c>
+      <c r="O15">
+        <v>55.3</v>
+      </c>
+      <c r="P15">
         <v>55.2</v>
       </c>
-      <c r="G15" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="I15" s="5">
-        <v>79</v>
-      </c>
-      <c r="J15">
-        <v>95</v>
-      </c>
-      <c r="K15">
-        <v>25</v>
-      </c>
-      <c r="L15">
-        <v>1713</v>
-      </c>
-      <c r="M15">
-        <v>55.3</v>
-      </c>
-      <c r="N15">
-        <v>54.8</v>
-      </c>
-      <c r="O15">
-        <v>55</v>
-      </c>
-      <c r="P15">
-        <v>54.7</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>24.75</v>
-      </c>
-      <c r="R15" s="15">
-        <v>2.61</v>
+      <c r="Q15">
+        <v>24.98</v>
+      </c>
+      <c r="R15">
+        <v>2.63</v>
       </c>
       <c r="S15" s="8">
         <v>5.5800000000000002E-2</v>
@@ -2788,13 +2799,13 @@
       <c r="X15" t="s">
         <v>86</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15">
         <v>1.54</v>
       </c>
       <c r="Z15" s="8">
         <v>0.94059999999999999</v>
       </c>
-      <c r="AA15" s="17">
+      <c r="AA15" s="8">
         <v>0.9375</v>
       </c>
       <c r="AB15" s="8">
@@ -2803,10 +2814,10 @@
       <c r="AC15">
         <v>25.04</v>
       </c>
-      <c r="AD15" s="15">
+      <c r="AD15">
         <v>41.93</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AE15">
         <v>1.86</v>
       </c>
       <c r="AF15">
@@ -2815,14 +2826,17 @@
       <c r="AG15">
         <v>0.7</v>
       </c>
-      <c r="AH15" s="17">
+      <c r="AH15" s="8">
         <v>1.9E-2</v>
       </c>
       <c r="AI15" s="9">
         <v>45120</v>
       </c>
       <c r="AJ15" s="9">
-        <v>44777</v>
+        <v>45163</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>72</v>
       </c>
       <c r="AL15" s="8">
         <v>0.745</v>
@@ -2833,7 +2847,7 @@
     </row>
     <row r="16" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>102</v>
@@ -2842,48 +2856,48 @@
         <v>143</v>
       </c>
       <c r="D16">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="E16">
+        <v>31.95</v>
+      </c>
+      <c r="F16" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>360</v>
+      </c>
+      <c r="K16">
+        <v>127</v>
+      </c>
+      <c r="L16">
+        <v>1737</v>
+      </c>
+      <c r="M16">
+        <v>31.8</v>
+      </c>
+      <c r="N16">
+        <v>31.55</v>
+      </c>
+      <c r="O16">
         <v>31.75</v>
       </c>
-      <c r="F16" s="5">
+      <c r="P16">
         <v>31.5</v>
       </c>
-      <c r="G16" s="5">
-        <v>-0.19999999999999929</v>
-      </c>
-      <c r="H16" s="5">
-        <v>-0.63</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1414</v>
-      </c>
-      <c r="J16">
-        <v>77</v>
-      </c>
-      <c r="K16">
-        <v>220</v>
-      </c>
-      <c r="L16">
-        <v>6019</v>
-      </c>
-      <c r="M16">
-        <v>31.85</v>
-      </c>
-      <c r="N16">
-        <v>31.5</v>
-      </c>
-      <c r="O16">
-        <v>31.7</v>
-      </c>
-      <c r="P16">
-        <v>31.7</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>10.39</v>
-      </c>
-      <c r="R16" s="15">
+      <c r="Q16">
+        <v>10.33</v>
+      </c>
+      <c r="R16">
         <v>0.82</v>
       </c>
       <c r="S16" s="8">
@@ -2904,13 +2918,13 @@
       <c r="X16" t="s">
         <v>87</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16">
         <v>4.29</v>
       </c>
       <c r="Z16" s="8">
         <v>1.9652000000000001</v>
       </c>
-      <c r="AA16" s="17">
+      <c r="AA16" s="8">
         <v>1.3294999999999999</v>
       </c>
       <c r="AB16" s="8">
@@ -2919,10 +2933,10 @@
       <c r="AC16">
         <v>4.41</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AD16">
         <v>39.04</v>
       </c>
-      <c r="AE16" s="15">
+      <c r="AE16">
         <v>96.63</v>
       </c>
       <c r="AF16">
@@ -2931,8 +2945,8 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16" s="17">
-        <v>4.1000000000000002E-2</v>
+      <c r="AH16" s="8">
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="AI16" s="9">
         <v>45119</v>
@@ -2940,6 +2954,9 @@
       <c r="AJ16" s="9">
         <v>45147</v>
       </c>
+      <c r="AK16" t="s">
+        <v>72</v>
+      </c>
       <c r="AL16" s="8">
         <v>-0.1358</v>
       </c>
@@ -2949,7 +2966,7 @@
     </row>
     <row r="17" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>103</v>
@@ -2958,48 +2975,48 @@
         <v>13</v>
       </c>
       <c r="D17">
-        <v>128.9</v>
+        <v>130.25</v>
       </c>
       <c r="E17">
-        <v>129.35</v>
+        <v>130.75</v>
       </c>
       <c r="F17" s="5">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.4500000000000171</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>155</v>
+      </c>
+      <c r="L17">
+        <v>4085</v>
+      </c>
+      <c r="M17">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="N17">
+        <v>129.6</v>
+      </c>
+      <c r="O17">
+        <v>129.6</v>
+      </c>
+      <c r="P17">
         <v>129.1</v>
       </c>
-      <c r="G17" s="5">
-        <v>4.9999999999982947E-2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="I17" s="5">
-        <v>201</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>7012</v>
-      </c>
-      <c r="M17">
-        <v>129.1</v>
-      </c>
-      <c r="N17">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="O17">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="P17">
-        <v>129.05000000000001</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="15" t="s">
+      <c r="Q17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" t="s">
         <v>72</v>
       </c>
       <c r="S17" t="s">
@@ -3020,13 +3037,13 @@
       <c r="X17" t="s">
         <v>72</v>
       </c>
-      <c r="Y17" s="15" t="s">
+      <c r="Y17" t="s">
         <v>72</v>
       </c>
       <c r="Z17" t="s">
         <v>72</v>
       </c>
-      <c r="AA17" s="15" t="s">
+      <c r="AA17" t="s">
         <v>72</v>
       </c>
       <c r="AB17" t="s">
@@ -3035,10 +3052,10 @@
       <c r="AC17" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE17" s="15" t="s">
+      <c r="AD17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s">
         <v>72</v>
       </c>
       <c r="AF17">
@@ -3047,7 +3064,7 @@
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17" s="17">
+      <c r="AH17" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="AI17" s="9">
@@ -3056,6 +3073,9 @@
       <c r="AJ17" s="9">
         <v>44992</v>
       </c>
+      <c r="AK17" t="s">
+        <v>72</v>
+      </c>
       <c r="AL17" t="s">
         <v>72</v>
       </c>
@@ -3065,7 +3085,7 @@
     </row>
     <row r="18" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>104</v>
@@ -3074,48 +3094,48 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>115.65</v>
+        <v>116.75</v>
       </c>
       <c r="E18">
-        <v>116.4</v>
+        <v>117.25</v>
       </c>
       <c r="F18" s="5">
         <v>116.1</v>
       </c>
       <c r="G18" s="5">
-        <v>0.64999999999999147</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
         <v>4</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="K18">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="L18">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="M18">
+        <v>117.4</v>
+      </c>
+      <c r="N18">
+        <v>116.3</v>
+      </c>
+      <c r="O18">
+        <v>116.3</v>
+      </c>
+      <c r="P18">
         <v>116.1</v>
       </c>
-      <c r="N18">
-        <v>114.55</v>
-      </c>
-      <c r="O18">
-        <v>114.8</v>
-      </c>
-      <c r="P18">
-        <v>115.45</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R18" s="15" t="s">
+      <c r="Q18" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" t="s">
         <v>72</v>
       </c>
       <c r="S18" t="s">
@@ -3136,13 +3156,13 @@
       <c r="X18" t="s">
         <v>72</v>
       </c>
-      <c r="Y18" s="15" t="s">
+      <c r="Y18" t="s">
         <v>72</v>
       </c>
       <c r="Z18" t="s">
         <v>72</v>
       </c>
-      <c r="AA18" s="15" t="s">
+      <c r="AA18" t="s">
         <v>72</v>
       </c>
       <c r="AB18" t="s">
@@ -3151,10 +3171,10 @@
       <c r="AC18" t="s">
         <v>72</v>
       </c>
-      <c r="AD18" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE18" s="15" t="s">
+      <c r="AD18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s">
         <v>72</v>
       </c>
       <c r="AF18">
@@ -3163,7 +3183,7 @@
       <c r="AG18">
         <v>0</v>
       </c>
-      <c r="AH18" s="17">
+      <c r="AH18" s="8">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="AI18" s="9">
@@ -3172,6 +3192,9 @@
       <c r="AJ18" s="9">
         <v>45064</v>
       </c>
+      <c r="AK18" t="s">
+        <v>72</v>
+      </c>
       <c r="AL18" t="s">
         <v>72</v>
       </c>
@@ -3181,7 +3204,7 @@
     </row>
     <row r="19" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>105</v>
@@ -3190,48 +3213,48 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>23.13</v>
+        <v>23.15</v>
       </c>
       <c r="E19">
         <v>23.27</v>
       </c>
       <c r="F19" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>201</v>
+      </c>
+      <c r="M19">
+        <v>23.26</v>
+      </c>
+      <c r="N19">
+        <v>23.19</v>
+      </c>
+      <c r="O19">
+        <v>23.22</v>
+      </c>
+      <c r="P19">
         <v>23.17</v>
       </c>
-      <c r="G19" s="5">
-        <v>-2.9999999999997584E-2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>-0.13</v>
-      </c>
-      <c r="I19" s="5">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>84</v>
-      </c>
-      <c r="M19">
-        <v>23.24</v>
-      </c>
-      <c r="N19">
-        <v>23.14</v>
-      </c>
-      <c r="O19">
-        <v>23.2</v>
-      </c>
-      <c r="P19">
-        <v>23.2</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="15" t="s">
+      <c r="Q19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" t="s">
         <v>72</v>
       </c>
       <c r="S19" t="s">
@@ -3252,13 +3275,13 @@
       <c r="X19" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="15" t="s">
+      <c r="Y19" t="s">
         <v>72</v>
       </c>
       <c r="Z19" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="15" t="s">
+      <c r="AA19" t="s">
         <v>72</v>
       </c>
       <c r="AB19" t="s">
@@ -3267,10 +3290,10 @@
       <c r="AC19" t="s">
         <v>72</v>
       </c>
-      <c r="AD19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE19" s="15" t="s">
+      <c r="AD19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s">
         <v>72</v>
       </c>
       <c r="AF19">
@@ -3279,7 +3302,7 @@
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AH19" s="17">
+      <c r="AH19" s="8">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="AI19" s="9">
@@ -3288,6 +3311,9 @@
       <c r="AJ19" s="9">
         <v>44915</v>
       </c>
+      <c r="AK19" t="s">
+        <v>72</v>
+      </c>
       <c r="AL19" t="s">
         <v>72</v>
       </c>
@@ -3297,7 +3323,7 @@
     </row>
     <row r="20" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>106</v>
@@ -3306,48 +3332,48 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>32.630000000000003</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="E20">
-        <v>32.72</v>
+        <v>33.32</v>
       </c>
       <c r="F20" s="5">
+        <v>33.28</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>287</v>
+      </c>
+      <c r="K20">
+        <v>337</v>
+      </c>
+      <c r="L20">
+        <v>32408</v>
+      </c>
+      <c r="M20">
+        <v>33.33</v>
+      </c>
+      <c r="N20">
+        <v>32.89</v>
+      </c>
+      <c r="O20">
+        <v>32.89</v>
+      </c>
+      <c r="P20">
         <v>32.67</v>
       </c>
-      <c r="G20" s="5">
-        <v>0.14000000000000057</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="I20" s="5">
-        <v>336</v>
-      </c>
-      <c r="J20">
-        <v>84</v>
-      </c>
-      <c r="K20">
-        <v>24</v>
-      </c>
-      <c r="L20">
-        <v>15378</v>
-      </c>
-      <c r="M20">
-        <v>32.67</v>
-      </c>
-      <c r="N20">
-        <v>32.42</v>
-      </c>
-      <c r="O20">
-        <v>32.53</v>
-      </c>
-      <c r="P20">
-        <v>32.53</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R20" s="15" t="s">
+      <c r="Q20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
         <v>72</v>
       </c>
       <c r="S20" t="s">
@@ -3368,13 +3394,13 @@
       <c r="X20" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" s="15" t="s">
+      <c r="Y20" t="s">
         <v>72</v>
       </c>
       <c r="Z20" t="s">
         <v>72</v>
       </c>
-      <c r="AA20" s="15" t="s">
+      <c r="AA20" t="s">
         <v>72</v>
       </c>
       <c r="AB20" t="s">
@@ -3383,10 +3409,10 @@
       <c r="AC20" t="s">
         <v>72</v>
       </c>
-      <c r="AD20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE20" s="15" t="s">
+      <c r="AD20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s">
         <v>72</v>
       </c>
       <c r="AF20">
@@ -3395,7 +3421,7 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20" s="17">
+      <c r="AH20" s="8">
         <v>8.1299999999999997E-2</v>
       </c>
       <c r="AI20" s="9">
@@ -3404,6 +3430,9 @@
       <c r="AJ20" s="9">
         <v>44887</v>
       </c>
+      <c r="AK20" t="s">
+        <v>72</v>
+      </c>
       <c r="AL20" t="s">
         <v>72</v>
       </c>
@@ -3413,7 +3442,7 @@
     </row>
     <row r="21" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>107</v>
@@ -3422,48 +3451,48 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>86.65</v>
+        <v>87.3</v>
       </c>
       <c r="E21">
-        <v>87.25</v>
+        <v>87.9</v>
       </c>
       <c r="F21" s="5">
         <v>34.409999999999997</v>
       </c>
       <c r="G21" s="5">
-        <v>-52.290000000000006</v>
+        <v>-52.490000000000009</v>
       </c>
       <c r="H21" s="5">
-        <v>-60.31</v>
+        <v>-60.4</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M21">
+        <v>87.35</v>
+      </c>
+      <c r="N21">
+        <v>87.25</v>
+      </c>
+      <c r="O21">
+        <v>87.25</v>
+      </c>
+      <c r="P21">
         <v>86.9</v>
       </c>
-      <c r="N21">
-        <v>86.55</v>
-      </c>
-      <c r="O21">
-        <v>86.65</v>
-      </c>
-      <c r="P21">
-        <v>86.7</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="15" t="s">
+      <c r="Q21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" t="s">
         <v>72</v>
       </c>
       <c r="S21" t="s">
@@ -3484,13 +3513,13 @@
       <c r="X21" t="s">
         <v>72</v>
       </c>
-      <c r="Y21" s="15" t="s">
+      <c r="Y21" t="s">
         <v>72</v>
       </c>
       <c r="Z21" t="s">
         <v>72</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" t="s">
         <v>72</v>
       </c>
       <c r="AB21" t="s">
@@ -3499,10 +3528,10 @@
       <c r="AC21" t="s">
         <v>72</v>
       </c>
-      <c r="AD21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE21" s="15" t="s">
+      <c r="AD21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s">
         <v>72</v>
       </c>
       <c r="AF21">
@@ -3511,7 +3540,7 @@
       <c r="AG21">
         <v>0</v>
       </c>
-      <c r="AH21" s="17">
+      <c r="AH21" s="8">
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="AI21" s="9">
@@ -3520,6 +3549,9 @@
       <c r="AJ21" s="9">
         <v>44886</v>
       </c>
+      <c r="AK21" t="s">
+        <v>72</v>
+      </c>
       <c r="AL21" t="s">
         <v>72</v>
       </c>
@@ -3529,7 +3561,7 @@
     </row>
     <row r="22" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>108</v>
@@ -3538,48 +3570,48 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>74.5</v>
+        <v>75.3</v>
       </c>
       <c r="E22">
-        <v>74.95</v>
+        <v>75.75</v>
       </c>
       <c r="F22" s="5">
+        <v>75.55</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>381</v>
+      </c>
+      <c r="K22">
+        <v>170</v>
+      </c>
+      <c r="L22">
+        <v>2263</v>
+      </c>
+      <c r="M22">
+        <v>75.7</v>
+      </c>
+      <c r="N22">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="O22">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="P22">
         <v>74.75</v>
       </c>
-      <c r="G22" s="5">
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="I22" s="5">
-        <v>76</v>
-      </c>
-      <c r="J22">
-        <v>210</v>
-      </c>
-      <c r="K22">
-        <v>27</v>
-      </c>
-      <c r="L22">
-        <v>3686</v>
-      </c>
-      <c r="M22">
-        <v>74.75</v>
-      </c>
-      <c r="N22">
-        <v>74.150000000000006</v>
-      </c>
-      <c r="O22">
-        <v>74.55</v>
-      </c>
-      <c r="P22">
-        <v>74.650000000000006</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R22" s="15" t="s">
+      <c r="Q22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" t="s">
         <v>72</v>
       </c>
       <c r="S22" t="s">
@@ -3600,13 +3632,13 @@
       <c r="X22" t="s">
         <v>72</v>
       </c>
-      <c r="Y22" s="15" t="s">
+      <c r="Y22" t="s">
         <v>72</v>
       </c>
       <c r="Z22" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="15" t="s">
+      <c r="AA22" t="s">
         <v>72</v>
       </c>
       <c r="AB22" t="s">
@@ -3615,10 +3647,10 @@
       <c r="AC22" t="s">
         <v>72</v>
       </c>
-      <c r="AD22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE22" s="15" t="s">
+      <c r="AD22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s">
         <v>72</v>
       </c>
       <c r="AF22">
@@ -3627,7 +3659,7 @@
       <c r="AG22">
         <v>0</v>
       </c>
-      <c r="AH22" s="17">
+      <c r="AH22" s="8">
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="AI22" s="9">
@@ -3636,6 +3668,9 @@
       <c r="AJ22" s="9">
         <v>44914</v>
       </c>
+      <c r="AK22" t="s">
+        <v>72</v>
+      </c>
       <c r="AL22" t="s">
         <v>72</v>
       </c>
@@ -3645,7 +3680,7 @@
     </row>
     <row r="23" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>109</v>
@@ -3654,48 +3689,48 @@
         <v>16</v>
       </c>
       <c r="D23">
-        <v>31.55</v>
+        <v>31.72</v>
       </c>
       <c r="E23">
-        <v>31.64</v>
+        <v>31.81</v>
       </c>
       <c r="F23" s="5">
+        <v>31.77</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I23" s="5">
+        <v>307</v>
+      </c>
+      <c r="J23">
+        <v>539</v>
+      </c>
+      <c r="K23">
+        <v>441</v>
+      </c>
+      <c r="L23">
+        <v>10397</v>
+      </c>
+      <c r="M23">
+        <v>31.81</v>
+      </c>
+      <c r="N23">
+        <v>31.7</v>
+      </c>
+      <c r="O23">
+        <v>31.75</v>
+      </c>
+      <c r="P23">
         <v>31.59</v>
       </c>
-      <c r="G23" s="5">
-        <v>-0.28999999999999915</v>
-      </c>
-      <c r="H23" s="5">
-        <v>-0.91</v>
-      </c>
-      <c r="I23" s="5">
-        <v>469</v>
-      </c>
-      <c r="J23">
-        <v>2019</v>
-      </c>
-      <c r="K23">
-        <v>200</v>
-      </c>
-      <c r="L23">
-        <v>23372</v>
-      </c>
-      <c r="M23">
-        <v>31.61</v>
-      </c>
-      <c r="N23">
-        <v>31.54</v>
-      </c>
-      <c r="O23">
-        <v>31.58</v>
-      </c>
-      <c r="P23">
-        <v>31.88</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R23" s="15" t="s">
+      <c r="Q23" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" t="s">
         <v>72</v>
       </c>
       <c r="S23" t="s">
@@ -3716,13 +3751,13 @@
       <c r="X23" t="s">
         <v>72</v>
       </c>
-      <c r="Y23" s="15" t="s">
+      <c r="Y23" t="s">
         <v>72</v>
       </c>
       <c r="Z23" t="s">
         <v>72</v>
       </c>
-      <c r="AA23" s="15" t="s">
+      <c r="AA23" t="s">
         <v>72</v>
       </c>
       <c r="AB23" t="s">
@@ -3731,10 +3766,10 @@
       <c r="AC23" t="s">
         <v>72</v>
       </c>
-      <c r="AD23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE23" s="15" t="s">
+      <c r="AD23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s">
         <v>72</v>
       </c>
       <c r="AF23">
@@ -3743,7 +3778,7 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23" s="17">
+      <c r="AH23" s="8">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="AI23" s="9">
@@ -3752,6 +3787,9 @@
       <c r="AJ23" s="9">
         <v>45089</v>
       </c>
+      <c r="AK23" t="s">
+        <v>72</v>
+      </c>
       <c r="AL23" t="s">
         <v>72</v>
       </c>
@@ -3761,7 +3799,7 @@
     </row>
     <row r="24" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>110</v>
@@ -3770,48 +3808,48 @@
         <v>27</v>
       </c>
       <c r="D24">
-        <v>27.47</v>
+        <v>27.58</v>
       </c>
       <c r="E24">
-        <v>27.6</v>
+        <v>27.68</v>
       </c>
       <c r="F24" s="5">
+        <v>27.63</v>
+      </c>
+      <c r="G24" s="5">
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>91</v>
+      </c>
+      <c r="K24">
+        <v>85</v>
+      </c>
+      <c r="L24">
+        <v>222</v>
+      </c>
+      <c r="M24">
+        <v>27.69</v>
+      </c>
+      <c r="N24">
+        <v>27.52</v>
+      </c>
+      <c r="O24">
+        <v>27.58</v>
+      </c>
+      <c r="P24">
         <v>27.56</v>
       </c>
-      <c r="G24" s="5">
-        <v>9.9999999999997868E-2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="I24" s="5">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>163</v>
-      </c>
-      <c r="M24">
-        <v>27.56</v>
-      </c>
-      <c r="N24">
-        <v>27.25</v>
-      </c>
-      <c r="O24">
-        <v>27.35</v>
-      </c>
-      <c r="P24">
-        <v>27.46</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R24" s="15" t="s">
+      <c r="Q24" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" t="s">
         <v>72</v>
       </c>
       <c r="S24" t="s">
@@ -3832,13 +3870,13 @@
       <c r="X24" t="s">
         <v>72</v>
       </c>
-      <c r="Y24" s="15" t="s">
+      <c r="Y24" t="s">
         <v>72</v>
       </c>
       <c r="Z24" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="15" t="s">
+      <c r="AA24" t="s">
         <v>72</v>
       </c>
       <c r="AB24" t="s">
@@ -3847,10 +3885,10 @@
       <c r="AC24" t="s">
         <v>72</v>
       </c>
-      <c r="AD24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE24" s="15" t="s">
+      <c r="AD24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s">
         <v>72</v>
       </c>
       <c r="AF24">
@@ -3859,7 +3897,7 @@
       <c r="AG24">
         <v>0</v>
       </c>
-      <c r="AH24" s="17">
+      <c r="AH24" s="8">
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="AI24" s="9">
@@ -3868,6 +3906,9 @@
       <c r="AJ24" s="9">
         <v>45091</v>
       </c>
+      <c r="AK24" t="s">
+        <v>72</v>
+      </c>
       <c r="AL24" t="s">
         <v>72</v>
       </c>
@@ -3877,7 +3918,7 @@
     </row>
     <row r="25" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>111</v>
@@ -3886,48 +3927,48 @@
         <v>28</v>
       </c>
       <c r="D25">
-        <v>32.409999999999997</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="E25">
-        <v>32.5</v>
+        <v>32.86</v>
       </c>
       <c r="F25" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.33999999999999631</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>668</v>
+      </c>
+      <c r="K25">
+        <v>218</v>
+      </c>
+      <c r="L25">
+        <v>1814</v>
+      </c>
+      <c r="M25">
+        <v>32.89</v>
+      </c>
+      <c r="N25">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="O25">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="P25">
         <v>32.46</v>
       </c>
-      <c r="G25" s="5">
-        <v>9.0000000000003411E-2</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I25" s="5">
-        <v>8</v>
-      </c>
-      <c r="J25">
-        <v>79</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>2150</v>
-      </c>
-      <c r="M25">
-        <v>32.46</v>
-      </c>
-      <c r="N25">
-        <v>32.25</v>
-      </c>
-      <c r="O25">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="P25">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R25" s="15" t="s">
+      <c r="Q25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" t="s">
         <v>72</v>
       </c>
       <c r="S25" t="s">
@@ -3948,13 +3989,13 @@
       <c r="X25" t="s">
         <v>72</v>
       </c>
-      <c r="Y25" s="15" t="s">
+      <c r="Y25" t="s">
         <v>72</v>
       </c>
       <c r="Z25" t="s">
         <v>72</v>
       </c>
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" t="s">
         <v>72</v>
       </c>
       <c r="AB25" t="s">
@@ -3963,10 +4004,10 @@
       <c r="AC25" t="s">
         <v>72</v>
       </c>
-      <c r="AD25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE25" s="15" t="s">
+      <c r="AD25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s">
         <v>72</v>
       </c>
       <c r="AF25">
@@ -3975,7 +4016,7 @@
       <c r="AG25">
         <v>0</v>
       </c>
-      <c r="AH25" s="17">
+      <c r="AH25" s="8">
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="AI25" s="9">
@@ -3984,6 +4025,9 @@
       <c r="AJ25" s="9">
         <v>44914</v>
       </c>
+      <c r="AK25" t="s">
+        <v>72</v>
+      </c>
       <c r="AL25" t="s">
         <v>72</v>
       </c>
@@ -3993,7 +4037,7 @@
     </row>
     <row r="26" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>112</v>
@@ -4002,10 +4046,10 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <v>24.94</v>
+        <v>25.21</v>
       </c>
       <c r="E26">
-        <v>25.03</v>
+        <v>25.32</v>
       </c>
       <c r="F26" s="5">
         <v>24.99</v>
@@ -4020,30 +4064,30 @@
         <v>23</v>
       </c>
       <c r="J26">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K26">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="L26">
-        <v>910</v>
+        <v>1267</v>
       </c>
       <c r="M26">
-        <v>25.02</v>
+        <v>25.36</v>
       </c>
       <c r="N26">
-        <v>24.89</v>
+        <v>25.15</v>
       </c>
       <c r="O26">
-        <v>24.97</v>
+        <v>25.16</v>
       </c>
       <c r="P26">
         <v>24.99</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R26" s="15" t="s">
+      <c r="Q26" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" t="s">
         <v>72</v>
       </c>
       <c r="S26" t="s">
@@ -4064,13 +4108,13 @@
       <c r="X26" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="15" t="s">
+      <c r="Y26" t="s">
         <v>72</v>
       </c>
       <c r="Z26" t="s">
         <v>72</v>
       </c>
-      <c r="AA26" s="15" t="s">
+      <c r="AA26" t="s">
         <v>72</v>
       </c>
       <c r="AB26" t="s">
@@ -4079,10 +4123,10 @@
       <c r="AC26" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE26" s="15" t="s">
+      <c r="AD26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE26" t="s">
         <v>72</v>
       </c>
       <c r="AF26">
@@ -4091,7 +4135,7 @@
       <c r="AG26">
         <v>0</v>
       </c>
-      <c r="AH26" s="17">
+      <c r="AH26" s="8">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="AI26" s="9">
@@ -4100,6 +4144,9 @@
       <c r="AJ26" s="9">
         <v>44987</v>
       </c>
+      <c r="AK26" t="s">
+        <v>72</v>
+      </c>
       <c r="AL26" t="s">
         <v>72</v>
       </c>
@@ -4109,7 +4156,7 @@
     </row>
     <row r="27" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>113</v>
@@ -4118,48 +4165,48 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>9.8000000000000007</v>
+        <v>9.81</v>
       </c>
       <c r="E27">
-        <v>9.89</v>
+        <v>9.9</v>
       </c>
       <c r="F27" s="5">
+        <v>9.86</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1421</v>
+      </c>
+      <c r="K27">
+        <v>2282</v>
+      </c>
+      <c r="L27">
+        <v>17995</v>
+      </c>
+      <c r="M27">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="N27">
+        <v>9.83</v>
+      </c>
+      <c r="O27">
+        <v>9.86</v>
+      </c>
+      <c r="P27">
         <v>9.84</v>
       </c>
-      <c r="G27" s="5">
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="I27" s="5">
-        <v>511</v>
-      </c>
-      <c r="J27">
-        <v>2254</v>
-      </c>
-      <c r="K27">
-        <v>332</v>
-      </c>
-      <c r="L27">
-        <v>30475</v>
-      </c>
-      <c r="M27">
-        <v>9.85</v>
-      </c>
-      <c r="N27">
-        <v>9.77</v>
-      </c>
-      <c r="O27">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="P27">
-        <v>9.75</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" s="15" t="s">
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
         <v>72</v>
       </c>
       <c r="S27" t="s">
@@ -4180,13 +4227,13 @@
       <c r="X27" t="s">
         <v>72</v>
       </c>
-      <c r="Y27" s="15" t="s">
+      <c r="Y27" t="s">
         <v>72</v>
       </c>
       <c r="Z27" t="s">
         <v>72</v>
       </c>
-      <c r="AA27" s="15" t="s">
+      <c r="AA27" t="s">
         <v>72</v>
       </c>
       <c r="AB27" t="s">
@@ -4195,10 +4242,10 @@
       <c r="AC27" t="s">
         <v>72</v>
       </c>
-      <c r="AD27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE27" s="15" t="s">
+      <c r="AD27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE27" t="s">
         <v>72</v>
       </c>
       <c r="AF27">
@@ -4207,7 +4254,7 @@
       <c r="AG27">
         <v>0</v>
       </c>
-      <c r="AH27" s="17">
+      <c r="AH27" s="8">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="AI27" s="9">
@@ -4216,6 +4263,9 @@
       <c r="AJ27" s="9">
         <v>45121</v>
       </c>
+      <c r="AK27" t="s">
+        <v>72</v>
+      </c>
       <c r="AL27" t="s">
         <v>72</v>
       </c>
@@ -4225,7 +4275,7 @@
     </row>
     <row r="28" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>114</v>
@@ -4234,48 +4284,48 @@
         <v>31</v>
       </c>
       <c r="D28">
-        <v>45.35</v>
+        <v>45.79</v>
       </c>
       <c r="E28">
-        <v>45.44</v>
+        <v>45.88</v>
       </c>
       <c r="F28" s="5">
+        <v>45.84</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.44000000000000483</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>165</v>
+      </c>
+      <c r="K28">
+        <v>222</v>
+      </c>
+      <c r="L28">
+        <v>5183</v>
+      </c>
+      <c r="M28">
+        <v>45.88</v>
+      </c>
+      <c r="N28">
+        <v>45.43</v>
+      </c>
+      <c r="O28">
+        <v>45.43</v>
+      </c>
+      <c r="P28">
         <v>45.4</v>
       </c>
-      <c r="G28" s="5">
-        <v>9.9999999999980105E-3</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I28" s="5">
-        <v>51</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <v>49</v>
-      </c>
-      <c r="L28">
-        <v>3998</v>
-      </c>
-      <c r="M28">
-        <v>45.4</v>
-      </c>
-      <c r="N28">
-        <v>45.18</v>
-      </c>
-      <c r="O28">
-        <v>45.37</v>
-      </c>
-      <c r="P28">
-        <v>45.39</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R28" s="15" t="s">
+      <c r="Q28" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s">
         <v>72</v>
       </c>
       <c r="S28" t="s">
@@ -4296,13 +4346,13 @@
       <c r="X28" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="15" t="s">
+      <c r="Y28" t="s">
         <v>72</v>
       </c>
       <c r="Z28" t="s">
         <v>72</v>
       </c>
-      <c r="AA28" s="15" t="s">
+      <c r="AA28" t="s">
         <v>72</v>
       </c>
       <c r="AB28" t="s">
@@ -4311,10 +4361,10 @@
       <c r="AC28" t="s">
         <v>72</v>
       </c>
-      <c r="AD28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE28" s="15" t="s">
+      <c r="AD28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s">
         <v>72</v>
       </c>
       <c r="AF28">
@@ -4323,7 +4373,7 @@
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28" s="17">
+      <c r="AH28" s="8">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="AI28" s="9">
@@ -4332,6 +4382,9 @@
       <c r="AJ28" s="9">
         <v>45121</v>
       </c>
+      <c r="AK28" t="s">
+        <v>72</v>
+      </c>
       <c r="AL28" t="s">
         <v>72</v>
       </c>
@@ -4341,7 +4394,7 @@
     </row>
     <row r="29" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>115</v>
@@ -4350,48 +4403,48 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <v>24.66</v>
+        <v>24.85</v>
       </c>
       <c r="E29">
+        <v>24.95</v>
+      </c>
+      <c r="F29" s="5">
+        <v>24.92</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.22000000000000242</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>329</v>
+      </c>
+      <c r="K29">
+        <v>241</v>
+      </c>
+      <c r="L29">
+        <v>305</v>
+      </c>
+      <c r="M29">
+        <v>24.92</v>
+      </c>
+      <c r="N29">
         <v>24.75</v>
-      </c>
-      <c r="F29" s="5">
-        <v>24.7</v>
-      </c>
-      <c r="G29" s="5">
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="5">
-        <v>107</v>
-      </c>
-      <c r="J29">
-        <v>68</v>
-      </c>
-      <c r="K29">
-        <v>19</v>
-      </c>
-      <c r="L29">
-        <v>505</v>
-      </c>
-      <c r="M29">
-        <v>24.75</v>
-      </c>
-      <c r="N29">
-        <v>24.54</v>
       </c>
       <c r="O29">
         <v>24.75</v>
       </c>
       <c r="P29">
-        <v>24.65</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R29" s="15" t="s">
+        <v>24.7</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" t="s">
         <v>72</v>
       </c>
       <c r="S29" t="s">
@@ -4412,13 +4465,13 @@
       <c r="X29" t="s">
         <v>72</v>
       </c>
-      <c r="Y29" s="15" t="s">
+      <c r="Y29" t="s">
         <v>72</v>
       </c>
       <c r="Z29" t="s">
         <v>72</v>
       </c>
-      <c r="AA29" s="15" t="s">
+      <c r="AA29" t="s">
         <v>72</v>
       </c>
       <c r="AB29" t="s">
@@ -4427,10 +4480,10 @@
       <c r="AC29" t="s">
         <v>72</v>
       </c>
-      <c r="AD29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE29" s="15" t="s">
+      <c r="AD29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s">
         <v>72</v>
       </c>
       <c r="AF29">
@@ -4439,7 +4492,7 @@
       <c r="AG29">
         <v>0</v>
       </c>
-      <c r="AH29" s="17">
+      <c r="AH29" s="8">
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="AI29" s="9">
@@ -4448,6 +4501,9 @@
       <c r="AJ29" s="9">
         <v>44991</v>
       </c>
+      <c r="AK29" t="s">
+        <v>72</v>
+      </c>
       <c r="AL29" t="s">
         <v>72</v>
       </c>
@@ -4457,7 +4513,7 @@
     </row>
     <row r="30" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>116</v>
@@ -4466,10 +4522,10 @@
         <v>33</v>
       </c>
       <c r="D30">
-        <v>18.8</v>
+        <v>19.05</v>
       </c>
       <c r="E30">
-        <v>18.95</v>
+        <v>19.16</v>
       </c>
       <c r="F30" s="5">
         <v>18.88</v>
@@ -4484,30 +4540,30 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="M30">
-        <v>18.88</v>
+        <v>19.11</v>
       </c>
       <c r="N30">
-        <v>18.84</v>
+        <v>19</v>
       </c>
       <c r="O30">
-        <v>18.88</v>
+        <v>19</v>
       </c>
       <c r="P30">
         <v>18.88</v>
       </c>
-      <c r="Q30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R30" s="15" t="s">
+      <c r="Q30" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" t="s">
         <v>72</v>
       </c>
       <c r="S30" t="s">
@@ -4528,13 +4584,13 @@
       <c r="X30" t="s">
         <v>72</v>
       </c>
-      <c r="Y30" s="15" t="s">
+      <c r="Y30" t="s">
         <v>72</v>
       </c>
       <c r="Z30" t="s">
         <v>72</v>
       </c>
-      <c r="AA30" s="15" t="s">
+      <c r="AA30" t="s">
         <v>72</v>
       </c>
       <c r="AB30" t="s">
@@ -4543,10 +4599,10 @@
       <c r="AC30" t="s">
         <v>72</v>
       </c>
-      <c r="AD30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE30" s="15" t="s">
+      <c r="AD30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE30" t="s">
         <v>72</v>
       </c>
       <c r="AF30">
@@ -4555,7 +4611,7 @@
       <c r="AG30">
         <v>0</v>
       </c>
-      <c r="AH30" s="17">
+      <c r="AH30" s="8">
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="AI30" s="9">
@@ -4564,6 +4620,9 @@
       <c r="AJ30" s="9">
         <v>44886</v>
       </c>
+      <c r="AK30" t="s">
+        <v>72</v>
+      </c>
       <c r="AL30" t="s">
         <v>72</v>
       </c>
@@ -4573,7 +4632,7 @@
     </row>
     <row r="31" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>117</v>
@@ -4582,48 +4641,48 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>62.65</v>
+        <v>63.6</v>
       </c>
       <c r="E31">
-        <v>63.15</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="F31" s="5">
-        <v>11.9</v>
+        <v>63.8</v>
       </c>
       <c r="G31" s="5">
-        <v>-50.95</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="H31" s="5">
-        <v>-81.069999999999993</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>14</v>
+        <v>1.43</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="K31">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="L31">
-        <v>638</v>
+        <v>516</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>63.95</v>
       </c>
       <c r="N31">
-        <v>62.8</v>
+        <v>63.25</v>
       </c>
       <c r="O31">
-        <v>62.85</v>
+        <v>63.25</v>
       </c>
       <c r="P31">
-        <v>62.85</v>
-      </c>
-      <c r="Q31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" s="15" t="s">
+        <v>62.9</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>72</v>
+      </c>
+      <c r="R31" t="s">
         <v>72</v>
       </c>
       <c r="S31" t="s">
@@ -4644,13 +4703,13 @@
       <c r="X31" t="s">
         <v>72</v>
       </c>
-      <c r="Y31" s="15" t="s">
+      <c r="Y31" t="s">
         <v>72</v>
       </c>
       <c r="Z31" t="s">
         <v>72</v>
       </c>
-      <c r="AA31" s="15" t="s">
+      <c r="AA31" t="s">
         <v>72</v>
       </c>
       <c r="AB31" t="s">
@@ -4659,10 +4718,10 @@
       <c r="AC31" t="s">
         <v>72</v>
       </c>
-      <c r="AD31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE31" s="15" t="s">
+      <c r="AD31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s">
         <v>72</v>
       </c>
       <c r="AF31">
@@ -4671,7 +4730,7 @@
       <c r="AG31">
         <v>0</v>
       </c>
-      <c r="AH31" s="17">
+      <c r="AH31" s="8">
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="AI31" s="9">
@@ -4680,6 +4739,9 @@
       <c r="AJ31" s="9">
         <v>44909</v>
       </c>
+      <c r="AK31" t="s">
+        <v>72</v>
+      </c>
       <c r="AL31" t="s">
         <v>72</v>
       </c>
@@ -4689,7 +4751,7 @@
     </row>
     <row r="32" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>118</v>
@@ -4698,48 +4760,48 @@
         <v>18</v>
       </c>
       <c r="D32">
-        <v>34.619999999999997</v>
+        <v>34.96</v>
       </c>
       <c r="E32">
-        <v>34.71</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="F32" s="5">
+        <v>35</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.34000000000000341</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>564</v>
+      </c>
+      <c r="K32">
+        <v>424</v>
+      </c>
+      <c r="L32">
+        <v>8966</v>
+      </c>
+      <c r="M32">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="N32">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="O32">
+        <v>34.93</v>
+      </c>
+      <c r="P32">
         <v>34.659999999999997</v>
       </c>
-      <c r="G32" s="5">
-        <v>-0.21000000000000085</v>
-      </c>
-      <c r="H32" s="5">
-        <v>-0.6</v>
-      </c>
-      <c r="I32" s="5">
-        <v>309</v>
-      </c>
-      <c r="J32">
-        <v>611</v>
-      </c>
-      <c r="K32">
-        <v>380</v>
-      </c>
-      <c r="L32">
-        <v>14856</v>
-      </c>
-      <c r="M32">
-        <v>34.68</v>
-      </c>
-      <c r="N32">
-        <v>34.619999999999997</v>
-      </c>
-      <c r="O32">
-        <v>34.68</v>
-      </c>
-      <c r="P32">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R32" s="15" t="s">
+      <c r="Q32" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" t="s">
         <v>72</v>
       </c>
       <c r="S32" t="s">
@@ -4760,13 +4822,13 @@
       <c r="X32" t="s">
         <v>72</v>
       </c>
-      <c r="Y32" s="15" t="s">
+      <c r="Y32" t="s">
         <v>72</v>
       </c>
       <c r="Z32" t="s">
         <v>72</v>
       </c>
-      <c r="AA32" s="15" t="s">
+      <c r="AA32" t="s">
         <v>72</v>
       </c>
       <c r="AB32" t="s">
@@ -4775,10 +4837,10 @@
       <c r="AC32" t="s">
         <v>72</v>
       </c>
-      <c r="AD32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE32" s="15" t="s">
+      <c r="AD32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s">
         <v>72</v>
       </c>
       <c r="AF32">
@@ -4787,7 +4849,7 @@
       <c r="AG32">
         <v>0</v>
       </c>
-      <c r="AH32" s="17">
+      <c r="AH32" s="8">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="AI32" s="9">
@@ -4796,6 +4858,9 @@
       <c r="AJ32" s="9">
         <v>45121</v>
       </c>
+      <c r="AK32" t="s">
+        <v>72</v>
+      </c>
       <c r="AL32" t="s">
         <v>72</v>
       </c>
@@ -4805,7 +4870,7 @@
     </row>
     <row r="33" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>119</v>
@@ -4814,48 +4879,48 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>34.130000000000003</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="E33">
-        <v>34.229999999999997</v>
+        <v>34.68</v>
       </c>
       <c r="F33" s="5">
+        <v>34.64</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>51</v>
+      </c>
+      <c r="K33">
+        <v>52</v>
+      </c>
+      <c r="L33">
+        <v>107</v>
+      </c>
+      <c r="M33">
+        <v>34.65</v>
+      </c>
+      <c r="N33">
+        <v>34.47</v>
+      </c>
+      <c r="O33">
+        <v>34.47</v>
+      </c>
+      <c r="P33">
         <v>34.18</v>
       </c>
-      <c r="G33" s="5">
-        <v>3.0000000000001137E-2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="I33" s="5">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <v>30</v>
-      </c>
-      <c r="L33">
-        <v>43</v>
-      </c>
-      <c r="M33">
-        <v>34.18</v>
-      </c>
-      <c r="N33">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="O33">
-        <v>34.15</v>
-      </c>
-      <c r="P33">
-        <v>34.15</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="15" t="s">
+      <c r="Q33" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" t="s">
         <v>72</v>
       </c>
       <c r="S33" t="s">
@@ -4876,13 +4941,13 @@
       <c r="X33" t="s">
         <v>72</v>
       </c>
-      <c r="Y33" s="15" t="s">
+      <c r="Y33" t="s">
         <v>72</v>
       </c>
       <c r="Z33" t="s">
         <v>72</v>
       </c>
-      <c r="AA33" s="15" t="s">
+      <c r="AA33" t="s">
         <v>72</v>
       </c>
       <c r="AB33" t="s">
@@ -4891,10 +4956,10 @@
       <c r="AC33" t="s">
         <v>72</v>
       </c>
-      <c r="AD33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE33" s="15" t="s">
+      <c r="AD33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s">
         <v>72</v>
       </c>
       <c r="AF33">
@@ -4903,7 +4968,7 @@
       <c r="AG33">
         <v>0</v>
       </c>
-      <c r="AH33" s="17">
+      <c r="AH33" s="8">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="AI33" s="9">
@@ -4912,6 +4977,9 @@
       <c r="AJ33" s="9">
         <v>44987</v>
       </c>
+      <c r="AK33" t="s">
+        <v>72</v>
+      </c>
       <c r="AL33" t="s">
         <v>72</v>
       </c>
@@ -4921,7 +4989,7 @@
     </row>
     <row r="34" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>120</v>
@@ -4930,48 +4998,48 @@
         <v>19</v>
       </c>
       <c r="D34">
-        <v>35.47</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="E34">
-        <v>35.56</v>
+        <v>35.86</v>
       </c>
       <c r="F34" s="5">
+        <v>35.81</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>441</v>
+      </c>
+      <c r="K34">
+        <v>470</v>
+      </c>
+      <c r="L34">
+        <v>8134</v>
+      </c>
+      <c r="M34">
+        <v>35.83</v>
+      </c>
+      <c r="N34">
+        <v>35.75</v>
+      </c>
+      <c r="O34">
+        <v>35.75</v>
+      </c>
+      <c r="P34">
         <v>35.520000000000003</v>
       </c>
-      <c r="G34" s="5">
-        <v>-0.18999999999999773</v>
-      </c>
-      <c r="H34" s="5">
-        <v>-0.53</v>
-      </c>
-      <c r="I34" s="5">
-        <v>114</v>
-      </c>
-      <c r="J34">
-        <v>592</v>
-      </c>
-      <c r="K34">
-        <v>516</v>
-      </c>
-      <c r="L34">
-        <v>13067</v>
-      </c>
-      <c r="M34">
-        <v>35.54</v>
-      </c>
-      <c r="N34">
-        <v>35.46</v>
-      </c>
-      <c r="O34">
-        <v>35.5</v>
-      </c>
-      <c r="P34">
-        <v>35.71</v>
-      </c>
-      <c r="Q34" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R34" s="15" t="s">
+      <c r="Q34" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" t="s">
         <v>72</v>
       </c>
       <c r="S34" t="s">
@@ -4992,13 +5060,13 @@
       <c r="X34" t="s">
         <v>72</v>
       </c>
-      <c r="Y34" s="15" t="s">
+      <c r="Y34" t="s">
         <v>72</v>
       </c>
       <c r="Z34" t="s">
         <v>72</v>
       </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AA34" t="s">
         <v>72</v>
       </c>
       <c r="AB34" t="s">
@@ -5007,10 +5075,10 @@
       <c r="AC34" t="s">
         <v>72</v>
       </c>
-      <c r="AD34" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE34" s="15" t="s">
+      <c r="AD34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s">
         <v>72</v>
       </c>
       <c r="AF34">
@@ -5019,7 +5087,7 @@
       <c r="AG34">
         <v>0</v>
       </c>
-      <c r="AH34" s="17">
+      <c r="AH34" s="8">
         <v>3.3E-3</v>
       </c>
       <c r="AI34" s="9">
@@ -5028,13 +5096,16 @@
       <c r="AJ34" s="9">
         <v>45121</v>
       </c>
+      <c r="AK34" t="s">
+        <v>72</v>
+      </c>
       <c r="AL34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>121</v>
@@ -5043,48 +5114,48 @@
         <v>20</v>
       </c>
       <c r="D35">
-        <v>35.630000000000003</v>
+        <v>35.92</v>
       </c>
       <c r="E35">
-        <v>35.72</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="F35" s="5">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.30999999999999517</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>426</v>
+      </c>
+      <c r="K35">
+        <v>271</v>
+      </c>
+      <c r="L35">
+        <v>3064</v>
+      </c>
+      <c r="M35">
+        <v>36.01</v>
+      </c>
+      <c r="N35">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="O35">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="P35">
         <v>35.67</v>
       </c>
-      <c r="G35" s="5">
-        <v>-0.19999999999999574</v>
-      </c>
-      <c r="H35" s="5">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="I35" s="5">
-        <v>38</v>
-      </c>
-      <c r="J35">
-        <v>249</v>
-      </c>
-      <c r="K35">
-        <v>100</v>
-      </c>
-      <c r="L35">
-        <v>3058</v>
-      </c>
-      <c r="M35">
-        <v>35.72</v>
-      </c>
-      <c r="N35">
-        <v>35.65</v>
-      </c>
-      <c r="O35">
-        <v>35.659999999999997</v>
-      </c>
-      <c r="P35">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="Q35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R35" s="15" t="s">
+      <c r="Q35" t="s">
+        <v>72</v>
+      </c>
+      <c r="R35" t="s">
         <v>72</v>
       </c>
       <c r="S35" t="s">
@@ -5105,13 +5176,13 @@
       <c r="X35" t="s">
         <v>72</v>
       </c>
-      <c r="Y35" s="15" t="s">
+      <c r="Y35" t="s">
         <v>72</v>
       </c>
       <c r="Z35" t="s">
         <v>72</v>
       </c>
-      <c r="AA35" s="15" t="s">
+      <c r="AA35" t="s">
         <v>72</v>
       </c>
       <c r="AB35" t="s">
@@ -5120,10 +5191,10 @@
       <c r="AC35" t="s">
         <v>72</v>
       </c>
-      <c r="AD35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE35" s="15" t="s">
+      <c r="AD35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s">
         <v>72</v>
       </c>
       <c r="AF35">
@@ -5132,7 +5203,7 @@
       <c r="AG35">
         <v>0</v>
       </c>
-      <c r="AH35" s="17">
+      <c r="AH35" s="8">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="AI35" s="9">
@@ -5141,13 +5212,16 @@
       <c r="AJ35" s="9">
         <v>45121</v>
       </c>
+      <c r="AK35" t="s">
+        <v>72</v>
+      </c>
       <c r="AL35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>122</v>
@@ -5156,48 +5230,48 @@
         <v>144</v>
       </c>
       <c r="D36">
-        <v>32.71</v>
+        <v>33.19</v>
       </c>
       <c r="E36">
-        <v>32.799999999999997</v>
+        <v>33.28</v>
       </c>
       <c r="F36" s="5">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="I36" s="5">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>384</v>
+      </c>
+      <c r="K36">
+        <v>308</v>
+      </c>
+      <c r="L36">
+        <v>2617</v>
+      </c>
+      <c r="M36">
+        <v>33.24</v>
+      </c>
+      <c r="N36">
+        <v>33.18</v>
+      </c>
+      <c r="O36">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="P36">
         <v>32.76</v>
       </c>
-      <c r="G36" s="5">
-        <v>-3.9999999999999147E-2</v>
-      </c>
-      <c r="H36" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="I36" s="5">
-        <v>127</v>
-      </c>
-      <c r="J36">
-        <v>631</v>
-      </c>
-      <c r="K36">
-        <v>142</v>
-      </c>
-      <c r="L36">
-        <v>1591</v>
-      </c>
-      <c r="M36">
-        <v>32.79</v>
-      </c>
-      <c r="N36">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="O36">
-        <v>32.79</v>
-      </c>
-      <c r="P36">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R36" s="15" t="s">
+      <c r="Q36" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" t="s">
         <v>72</v>
       </c>
       <c r="S36" t="s">
@@ -5218,13 +5292,13 @@
       <c r="X36" t="s">
         <v>72</v>
       </c>
-      <c r="Y36" s="15" t="s">
+      <c r="Y36" t="s">
         <v>72</v>
       </c>
       <c r="Z36" t="s">
         <v>72</v>
       </c>
-      <c r="AA36" s="15" t="s">
+      <c r="AA36" t="s">
         <v>72</v>
       </c>
       <c r="AB36" t="s">
@@ -5233,10 +5307,10 @@
       <c r="AC36" t="s">
         <v>72</v>
       </c>
-      <c r="AD36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE36" s="15" t="s">
+      <c r="AD36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s">
         <v>72</v>
       </c>
       <c r="AF36">
@@ -5245,7 +5319,7 @@
       <c r="AG36">
         <v>0</v>
       </c>
-      <c r="AH36" s="17">
+      <c r="AH36" s="8">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="AI36" s="9">
@@ -5254,6 +5328,9 @@
       <c r="AJ36" s="9">
         <v>44987</v>
       </c>
+      <c r="AK36" t="s">
+        <v>72</v>
+      </c>
       <c r="AL36" t="s">
         <v>72</v>
       </c>
@@ -5263,7 +5340,7 @@
     </row>
     <row r="37" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>123</v>
@@ -5272,48 +5349,48 @@
         <v>39</v>
       </c>
       <c r="D37">
-        <v>33.76</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E37">
-        <v>33.85</v>
+        <v>34.33</v>
       </c>
       <c r="F37" s="5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.48999999999999488</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>236</v>
+      </c>
+      <c r="K37">
+        <v>268</v>
+      </c>
+      <c r="L37">
+        <v>1900</v>
+      </c>
+      <c r="M37">
+        <v>34.32</v>
+      </c>
+      <c r="N37">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="O37">
+        <v>34.04</v>
+      </c>
+      <c r="P37">
         <v>33.81</v>
       </c>
-      <c r="G37" s="5">
-        <v>3.9999999999999147E-2</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="I37" s="5">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>20</v>
-      </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
-      <c r="L37">
-        <v>1480</v>
-      </c>
-      <c r="M37">
-        <v>33.81</v>
-      </c>
-      <c r="N37">
-        <v>33.61</v>
-      </c>
-      <c r="O37">
-        <v>33.69</v>
-      </c>
-      <c r="P37">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R37" s="15" t="s">
+      <c r="Q37" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" t="s">
         <v>72</v>
       </c>
       <c r="S37" t="s">
@@ -5334,13 +5411,13 @@
       <c r="X37" t="s">
         <v>72</v>
       </c>
-      <c r="Y37" s="15" t="s">
+      <c r="Y37" t="s">
         <v>72</v>
       </c>
       <c r="Z37" t="s">
         <v>72</v>
       </c>
-      <c r="AA37" s="15" t="s">
+      <c r="AA37" t="s">
         <v>72</v>
       </c>
       <c r="AB37" t="s">
@@ -5349,10 +5426,10 @@
       <c r="AC37" t="s">
         <v>72</v>
       </c>
-      <c r="AD37" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE37" s="15" t="s">
+      <c r="AD37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s">
         <v>72</v>
       </c>
       <c r="AF37">
@@ -5361,7 +5438,7 @@
       <c r="AG37">
         <v>0</v>
       </c>
-      <c r="AH37" s="17">
+      <c r="AH37" s="8">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="AI37" s="9">
@@ -5370,6 +5447,9 @@
       <c r="AJ37" s="9">
         <v>44915</v>
       </c>
+      <c r="AK37" t="s">
+        <v>72</v>
+      </c>
       <c r="AL37" t="s">
         <v>72</v>
       </c>
@@ -5379,57 +5459,57 @@
     </row>
     <row r="38" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>19.2</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="E38">
-        <v>19.29</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="F38" s="5">
+        <v>19.53</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="I38" s="5">
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <v>2874</v>
+      </c>
+      <c r="K38">
+        <v>3831</v>
+      </c>
+      <c r="L38">
+        <v>61620</v>
+      </c>
+      <c r="M38">
+        <v>19.59</v>
+      </c>
+      <c r="N38">
+        <v>19.3</v>
+      </c>
+      <c r="O38">
+        <v>19.3</v>
+      </c>
+      <c r="P38">
         <v>19.25</v>
       </c>
-      <c r="G38" s="5">
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="I38" s="5">
-        <v>406</v>
-      </c>
-      <c r="J38">
-        <v>1591</v>
-      </c>
-      <c r="K38">
-        <v>642</v>
-      </c>
-      <c r="L38">
-        <v>30398</v>
-      </c>
-      <c r="M38">
-        <v>19.25</v>
-      </c>
-      <c r="N38">
-        <v>19.12</v>
-      </c>
-      <c r="O38">
-        <v>19.2</v>
-      </c>
-      <c r="P38">
-        <v>19.2</v>
-      </c>
-      <c r="Q38" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R38" s="15" t="s">
+      <c r="Q38" t="s">
+        <v>72</v>
+      </c>
+      <c r="R38" t="s">
         <v>72</v>
       </c>
       <c r="S38" t="s">
@@ -5450,13 +5530,13 @@
       <c r="X38" t="s">
         <v>72</v>
       </c>
-      <c r="Y38" s="15" t="s">
+      <c r="Y38" t="s">
         <v>72</v>
       </c>
       <c r="Z38" t="s">
         <v>72</v>
       </c>
-      <c r="AA38" s="15" t="s">
+      <c r="AA38" t="s">
         <v>72</v>
       </c>
       <c r="AB38" t="s">
@@ -5465,10 +5545,10 @@
       <c r="AC38" t="s">
         <v>72</v>
       </c>
-      <c r="AD38" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE38" s="15" t="s">
+      <c r="AD38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s">
         <v>72</v>
       </c>
       <c r="AF38">
@@ -5477,7 +5557,7 @@
       <c r="AG38">
         <v>0</v>
       </c>
-      <c r="AH38" s="17">
+      <c r="AH38" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AI38" s="9">
@@ -5486,6 +5566,9 @@
       <c r="AJ38" s="9">
         <v>45089</v>
       </c>
+      <c r="AK38" t="s">
+        <v>72</v>
+      </c>
       <c r="AL38" t="s">
         <v>72</v>
       </c>
@@ -5495,57 +5578,57 @@
     </row>
     <row r="39" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>16.78</v>
+        <v>17.04</v>
       </c>
       <c r="E39">
-        <v>16.87</v>
+        <v>17.13</v>
       </c>
       <c r="F39" s="5">
+        <v>17.09</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>463</v>
+      </c>
+      <c r="K39">
+        <v>1029</v>
+      </c>
+      <c r="L39">
+        <v>14869</v>
+      </c>
+      <c r="M39">
+        <v>17.13</v>
+      </c>
+      <c r="N39">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O39">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P39">
         <v>16.82</v>
       </c>
-      <c r="G39" s="5">
-        <v>5.9999999999998721E-2</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="I39" s="5">
-        <v>106</v>
-      </c>
-      <c r="J39">
-        <v>28</v>
-      </c>
-      <c r="K39">
-        <v>74</v>
-      </c>
-      <c r="L39">
-        <v>7952</v>
-      </c>
-      <c r="M39">
-        <v>16.82</v>
-      </c>
-      <c r="N39">
-        <v>16.64</v>
-      </c>
-      <c r="O39">
-        <v>16.75</v>
-      </c>
-      <c r="P39">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="Q39" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R39" s="15" t="s">
+      <c r="Q39" t="s">
+        <v>72</v>
+      </c>
+      <c r="R39" t="s">
         <v>72</v>
       </c>
       <c r="S39" t="s">
@@ -5566,13 +5649,13 @@
       <c r="X39" t="s">
         <v>72</v>
       </c>
-      <c r="Y39" s="15" t="s">
+      <c r="Y39" t="s">
         <v>72</v>
       </c>
       <c r="Z39" t="s">
         <v>72</v>
       </c>
-      <c r="AA39" s="15" t="s">
+      <c r="AA39" t="s">
         <v>72</v>
       </c>
       <c r="AB39" t="s">
@@ -5581,10 +5664,10 @@
       <c r="AC39" t="s">
         <v>72</v>
       </c>
-      <c r="AD39" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE39" s="15" t="s">
+      <c r="AD39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s">
         <v>72</v>
       </c>
       <c r="AF39">
@@ -5593,7 +5676,7 @@
       <c r="AG39">
         <v>0</v>
       </c>
-      <c r="AH39" s="17">
+      <c r="AH39" s="8">
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="AI39" s="9">
@@ -5602,6 +5685,9 @@
       <c r="AJ39" s="9">
         <v>44987</v>
       </c>
+      <c r="AK39" t="s">
+        <v>72</v>
+      </c>
       <c r="AL39" t="s">
         <v>72</v>
       </c>
@@ -5611,57 +5697,57 @@
     </row>
     <row r="40" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>14.16</v>
+        <v>14.21</v>
       </c>
       <c r="E40">
+        <v>14.3</v>
+      </c>
+      <c r="F40" s="5">
         <v>14.25</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>543</v>
+      </c>
+      <c r="K40">
+        <v>217</v>
+      </c>
+      <c r="L40">
+        <v>2591</v>
+      </c>
+      <c r="M40">
+        <v>14.32</v>
+      </c>
+      <c r="N40">
+        <v>14.24</v>
+      </c>
+      <c r="O40">
+        <v>14.24</v>
+      </c>
+      <c r="P40">
         <v>14.21</v>
       </c>
-      <c r="G40" s="5">
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="I40" s="5">
-        <v>161</v>
-      </c>
-      <c r="J40">
-        <v>202</v>
-      </c>
-      <c r="K40">
-        <v>377</v>
-      </c>
-      <c r="L40">
-        <v>6908</v>
-      </c>
-      <c r="M40">
-        <v>14.21</v>
-      </c>
-      <c r="N40">
-        <v>14.1</v>
-      </c>
-      <c r="O40">
-        <v>14.17</v>
-      </c>
-      <c r="P40">
-        <v>14.16</v>
-      </c>
-      <c r="Q40" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R40" s="15" t="s">
+      <c r="Q40" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" t="s">
         <v>72</v>
       </c>
       <c r="S40" t="s">
@@ -5682,13 +5768,13 @@
       <c r="X40" t="s">
         <v>72</v>
       </c>
-      <c r="Y40" s="15" t="s">
+      <c r="Y40" t="s">
         <v>72</v>
       </c>
       <c r="Z40" t="s">
         <v>72</v>
       </c>
-      <c r="AA40" s="15" t="s">
+      <c r="AA40" t="s">
         <v>72</v>
       </c>
       <c r="AB40" t="s">
@@ -5697,10 +5783,10 @@
       <c r="AC40" t="s">
         <v>72</v>
       </c>
-      <c r="AD40" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE40" s="15" t="s">
+      <c r="AD40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s">
         <v>72</v>
       </c>
       <c r="AF40">
@@ -5709,7 +5795,7 @@
       <c r="AG40">
         <v>0</v>
       </c>
-      <c r="AH40" s="17">
+      <c r="AH40" s="8">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="AI40" s="9">
@@ -5718,6 +5804,9 @@
       <c r="AJ40" s="9">
         <v>45068</v>
       </c>
+      <c r="AK40" t="s">
+        <v>72</v>
+      </c>
       <c r="AL40" t="s">
         <v>72</v>
       </c>
@@ -5727,57 +5816,57 @@
     </row>
     <row r="41" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>12.67</v>
+        <v>12.79</v>
       </c>
       <c r="E41">
-        <v>12.76</v>
+        <v>12.88</v>
       </c>
       <c r="F41" s="5">
+        <v>12.83</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="I41" s="5">
+        <v>50</v>
+      </c>
+      <c r="J41">
+        <v>508</v>
+      </c>
+      <c r="K41">
+        <v>593</v>
+      </c>
+      <c r="L41">
+        <v>2614</v>
+      </c>
+      <c r="M41">
+        <v>12.88</v>
+      </c>
+      <c r="N41">
+        <v>12.79</v>
+      </c>
+      <c r="O41">
+        <v>12.79</v>
+      </c>
+      <c r="P41">
         <v>12.72</v>
       </c>
-      <c r="G41" s="5">
-        <v>9.9999999999997868E-3</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I41" s="5">
-        <v>47</v>
-      </c>
-      <c r="J41">
-        <v>374</v>
-      </c>
-      <c r="K41">
-        <v>91</v>
-      </c>
-      <c r="L41">
-        <v>2846</v>
-      </c>
-      <c r="M41">
-        <v>12.72</v>
-      </c>
-      <c r="N41">
-        <v>12.59</v>
-      </c>
-      <c r="O41">
-        <v>12.65</v>
-      </c>
-      <c r="P41">
-        <v>12.71</v>
-      </c>
-      <c r="Q41" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R41" s="15" t="s">
+      <c r="Q41" t="s">
+        <v>72</v>
+      </c>
+      <c r="R41" t="s">
         <v>72</v>
       </c>
       <c r="S41" t="s">
@@ -5798,13 +5887,13 @@
       <c r="X41" t="s">
         <v>72</v>
       </c>
-      <c r="Y41" s="15" t="s">
+      <c r="Y41" t="s">
         <v>72</v>
       </c>
       <c r="Z41" t="s">
         <v>72</v>
       </c>
-      <c r="AA41" s="15" t="s">
+      <c r="AA41" t="s">
         <v>72</v>
       </c>
       <c r="AB41" t="s">
@@ -5813,10 +5902,10 @@
       <c r="AC41" t="s">
         <v>72</v>
       </c>
-      <c r="AD41" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE41" s="15" t="s">
+      <c r="AD41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s">
         <v>72</v>
       </c>
       <c r="AF41">
@@ -5825,7 +5914,7 @@
       <c r="AG41">
         <v>0</v>
       </c>
-      <c r="AH41" s="17">
+      <c r="AH41" s="8">
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="AI41" s="9">
@@ -5834,6 +5923,9 @@
       <c r="AJ41" s="9">
         <v>44914</v>
       </c>
+      <c r="AK41" t="s">
+        <v>72</v>
+      </c>
       <c r="AL41" t="s">
         <v>72</v>
       </c>
@@ -5843,57 +5935,57 @@
     </row>
     <row r="42" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>14.64</v>
+        <v>14.9</v>
       </c>
       <c r="E42">
-        <v>14.73</v>
+        <v>15</v>
       </c>
       <c r="F42" s="5">
+        <v>14.95</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>296</v>
+      </c>
+      <c r="K42">
+        <v>430</v>
+      </c>
+      <c r="L42">
+        <v>2058</v>
+      </c>
+      <c r="M42">
+        <v>14.96</v>
+      </c>
+      <c r="N42">
+        <v>14.78</v>
+      </c>
+      <c r="O42">
+        <v>14.78</v>
+      </c>
+      <c r="P42">
         <v>14.69</v>
       </c>
-      <c r="G42" s="5">
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="I42" s="5">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>180</v>
-      </c>
-      <c r="K42">
-        <v>288</v>
-      </c>
-      <c r="L42">
-        <v>4304</v>
-      </c>
-      <c r="M42">
-        <v>14.72</v>
-      </c>
-      <c r="N42">
-        <v>14.6</v>
-      </c>
-      <c r="O42">
-        <v>14.63</v>
-      </c>
-      <c r="P42">
-        <v>14.6</v>
-      </c>
-      <c r="Q42" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R42" s="15" t="s">
+      <c r="Q42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s">
         <v>72</v>
       </c>
       <c r="S42" t="s">
@@ -5914,13 +6006,13 @@
       <c r="X42" t="s">
         <v>72</v>
       </c>
-      <c r="Y42" s="15" t="s">
+      <c r="Y42" t="s">
         <v>72</v>
       </c>
       <c r="Z42" t="s">
         <v>72</v>
       </c>
-      <c r="AA42" s="15" t="s">
+      <c r="AA42" t="s">
         <v>72</v>
       </c>
       <c r="AB42" t="s">
@@ -5929,10 +6021,10 @@
       <c r="AC42" t="s">
         <v>72</v>
       </c>
-      <c r="AD42" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE42" s="15" t="s">
+      <c r="AD42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE42" t="s">
         <v>72</v>
       </c>
       <c r="AF42">
@@ -5941,7 +6033,7 @@
       <c r="AG42">
         <v>0</v>
       </c>
-      <c r="AH42" s="17">
+      <c r="AH42" s="8">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="AI42" s="9">
@@ -5950,6 +6042,9 @@
       <c r="AJ42" s="9">
         <v>45121</v>
       </c>
+      <c r="AK42" t="s">
+        <v>72</v>
+      </c>
       <c r="AL42" t="s">
         <v>72</v>
       </c>
@@ -5959,57 +6054,57 @@
     </row>
     <row r="43" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>15.9</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="E43">
-        <v>16.03</v>
+        <v>16.11</v>
       </c>
       <c r="F43" s="5">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="N43">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="O43">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="P43">
         <v>15.95</v>
       </c>
-      <c r="G43" s="5">
-        <v>-8.0000000000001847E-2</v>
-      </c>
-      <c r="H43" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="I43" s="5">
-        <v>2</v>
-      </c>
-      <c r="J43">
-        <v>6</v>
-      </c>
-      <c r="K43">
-        <v>45</v>
-      </c>
-      <c r="L43">
-        <v>15</v>
-      </c>
-      <c r="M43">
-        <v>15.99</v>
-      </c>
-      <c r="N43">
-        <v>15.95</v>
-      </c>
-      <c r="O43">
-        <v>15.99</v>
-      </c>
-      <c r="P43">
-        <v>16.03</v>
-      </c>
-      <c r="Q43" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R43" s="15" t="s">
+      <c r="Q43" t="s">
+        <v>72</v>
+      </c>
+      <c r="R43" t="s">
         <v>72</v>
       </c>
       <c r="S43" t="s">
@@ -6030,13 +6125,13 @@
       <c r="X43" t="s">
         <v>72</v>
       </c>
-      <c r="Y43" s="15" t="s">
+      <c r="Y43" t="s">
         <v>72</v>
       </c>
       <c r="Z43" t="s">
         <v>72</v>
       </c>
-      <c r="AA43" s="15" t="s">
+      <c r="AA43" t="s">
         <v>72</v>
       </c>
       <c r="AB43" t="s">
@@ -6045,10 +6140,10 @@
       <c r="AC43" t="s">
         <v>72</v>
       </c>
-      <c r="AD43" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE43" s="15" t="s">
+      <c r="AD43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s">
         <v>72</v>
       </c>
       <c r="AF43">
@@ -6057,7 +6152,7 @@
       <c r="AG43">
         <v>0</v>
       </c>
-      <c r="AH43" s="17">
+      <c r="AH43" s="8">
         <v>1.15E-2</v>
       </c>
       <c r="AI43" s="9">
@@ -6066,6 +6161,9 @@
       <c r="AJ43" s="9">
         <v>45092</v>
       </c>
+      <c r="AK43" t="s">
+        <v>72</v>
+      </c>
       <c r="AL43" t="s">
         <v>72</v>
       </c>
@@ -6074,6 +6172,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
       <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467744E-F594-4FAA-BECA-5D6989171725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4813C61-FD3A-45C5-BE67-31BCB397044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-2124" yWindow="7788" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new title" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,8 @@
     <col min="8" max="8" width="8.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
@@ -1280,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="8">
-        <v>3.95E-2</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="9">
         <v>45104</v>
@@ -1345,13 +1346,13 @@
         <v>40.4</v>
       </c>
       <c r="P3">
-        <v>40.15</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="Q3">
-        <v>25.25</v>
+        <v>24.65</v>
       </c>
       <c r="R3">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" s="8">
         <v>1.9E-2</v>
@@ -1464,13 +1465,13 @@
         <v>347</v>
       </c>
       <c r="P4">
-        <v>344.5</v>
+        <v>362.5</v>
       </c>
       <c r="Q4">
-        <v>26.71</v>
+        <v>28.45</v>
       </c>
       <c r="R4">
-        <v>4.63</v>
+        <v>4.93</v>
       </c>
       <c r="S4" s="8">
         <v>3.4700000000000002E-2</v>
@@ -1583,13 +1584,13 @@
         <v>114</v>
       </c>
       <c r="P5">
-        <v>113</v>
+        <v>109.5</v>
       </c>
       <c r="Q5">
-        <v>12.54</v>
+        <v>12.21</v>
       </c>
       <c r="R5">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="S5" s="8">
         <v>8.3999999999999995E-3</v>
@@ -1637,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="8">
-        <v>4.6899999999999997E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="AI5" s="9">
         <v>45111</v>
@@ -1702,13 +1703,13 @@
         <v>29.25</v>
       </c>
       <c r="P6">
-        <v>29.25</v>
+        <v>29.7</v>
       </c>
       <c r="Q6">
-        <v>19.5</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="R6">
-        <v>1.1399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="S6" s="8">
         <v>1.35E-2</v>
@@ -1821,13 +1822,13 @@
         <v>114</v>
       </c>
       <c r="P7">
-        <v>114</v>
+        <v>113.5</v>
       </c>
       <c r="Q7">
-        <v>15.88</v>
+        <v>16.23</v>
       </c>
       <c r="R7">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S7" s="8">
         <v>7.2700000000000001E-2</v>
@@ -1874,9 +1875,7 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7" s="8">
-        <v>5.0299999999999997E-2</v>
-      </c>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="9">
         <v>45092</v>
       </c>
@@ -1940,13 +1939,13 @@
         <v>283</v>
       </c>
       <c r="P8">
-        <v>282.5</v>
+        <v>283.5</v>
       </c>
       <c r="Q8">
-        <v>29.58</v>
+        <v>29.95</v>
       </c>
       <c r="R8">
-        <v>7.5</v>
+        <v>7.59</v>
       </c>
       <c r="S8" s="8">
         <v>6.8900000000000003E-2</v>
@@ -1994,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="8">
-        <v>3.1899999999999998E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="AI8" s="9">
         <v>45141</v>
@@ -2059,13 +2058,13 @@
         <v>95.8</v>
       </c>
       <c r="P9">
-        <v>95.6</v>
+        <v>95</v>
       </c>
       <c r="Q9">
-        <v>24.45</v>
+        <v>24.17</v>
       </c>
       <c r="R9">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="S9" s="8">
         <v>4.3200000000000002E-2</v>
@@ -2178,13 +2177,13 @@
         <v>93.6</v>
       </c>
       <c r="P10">
-        <v>90.8</v>
+        <v>95.7</v>
       </c>
       <c r="Q10">
-        <v>21.21</v>
+        <v>24.53</v>
       </c>
       <c r="R10">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
       <c r="S10" s="8">
         <v>1.6899999999999998E-2</v>
@@ -2232,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="8">
-        <v>2.86E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="AI10" s="9">
         <v>45112</v>
@@ -2297,13 +2296,13 @@
         <v>39.450000000000003</v>
       </c>
       <c r="P11">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="Q11">
-        <v>63.55</v>
+        <v>67.66</v>
       </c>
       <c r="R11">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="S11" s="8">
         <v>2.8999999999999998E-3</v>
@@ -2416,10 +2415,10 @@
         <v>111</v>
       </c>
       <c r="P12">
-        <v>110.5</v>
+        <v>111</v>
       </c>
       <c r="Q12">
-        <v>8.64</v>
+        <v>8.68</v>
       </c>
       <c r="R12">
         <v>1.76</v>
@@ -2535,13 +2534,13 @@
         <v>66.7</v>
       </c>
       <c r="P13">
-        <v>65.8</v>
+        <v>62</v>
       </c>
       <c r="Q13">
-        <v>11.02</v>
+        <v>10.28</v>
       </c>
       <c r="R13">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="S13" s="8">
         <v>3.0700000000000002E-2</v>
@@ -2589,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="8">
-        <v>5.9299999999999999E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="AI13" s="9">
         <v>45111</v>
@@ -2654,13 +2653,13 @@
         <v>62.1</v>
       </c>
       <c r="P14">
-        <v>62</v>
+        <v>61.8</v>
       </c>
       <c r="Q14">
-        <v>344.44</v>
+        <v>340.56</v>
       </c>
       <c r="R14">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="S14" s="8">
         <v>-6.8999999999999999E-3</v>
@@ -2773,13 +2772,13 @@
         <v>55.3</v>
       </c>
       <c r="P15">
-        <v>55.2</v>
+        <v>54.6</v>
       </c>
       <c r="Q15">
-        <v>24.98</v>
+        <v>24.48</v>
       </c>
       <c r="R15">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="S15" s="8">
         <v>5.5800000000000002E-2</v>
@@ -2827,7 +2826,7 @@
         <v>0.7</v>
       </c>
       <c r="AH15" s="8">
-        <v>1.9E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="AI15" s="9">
         <v>45120</v>
@@ -2892,10 +2891,10 @@
         <v>31.75</v>
       </c>
       <c r="P16">
-        <v>31.5</v>
+        <v>31.65</v>
       </c>
       <c r="Q16">
-        <v>10.33</v>
+        <v>10.31</v>
       </c>
       <c r="R16">
         <v>0.82</v>
@@ -3011,7 +3010,7 @@
         <v>129.6</v>
       </c>
       <c r="P17">
-        <v>129.1</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="Q17" t="s">
         <v>72</v>
@@ -3071,7 +3070,7 @@
         <v>44956</v>
       </c>
       <c r="AJ17" s="9">
-        <v>44992</v>
+        <v>45149</v>
       </c>
       <c r="AK17" t="s">
         <v>72</v>
@@ -3130,7 +3129,7 @@
         <v>116.3</v>
       </c>
       <c r="P18">
-        <v>116.1</v>
+        <v>117.05</v>
       </c>
       <c r="Q18" t="s">
         <v>72</v>
@@ -3249,7 +3248,7 @@
         <v>23.22</v>
       </c>
       <c r="P19">
-        <v>23.17</v>
+        <v>23.25</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
@@ -3368,7 +3367,7 @@
         <v>32.89</v>
       </c>
       <c r="P20">
-        <v>32.67</v>
+        <v>33.24</v>
       </c>
       <c r="Q20" t="s">
         <v>72</v>
@@ -3428,7 +3427,7 @@
         <v>44853</v>
       </c>
       <c r="AJ20" s="9">
-        <v>44887</v>
+        <v>45149</v>
       </c>
       <c r="AK20" t="s">
         <v>72</v>
@@ -3487,7 +3486,7 @@
         <v>87.25</v>
       </c>
       <c r="P21">
-        <v>86.9</v>
+        <v>87.6</v>
       </c>
       <c r="Q21" t="s">
         <v>72</v>
@@ -3606,7 +3605,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="P22">
-        <v>74.75</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="Q22" t="s">
         <v>72</v>
@@ -3666,7 +3665,7 @@
         <v>44881</v>
       </c>
       <c r="AJ22" s="9">
-        <v>44914</v>
+        <v>45149</v>
       </c>
       <c r="AK22" t="s">
         <v>72</v>
@@ -3725,7 +3724,7 @@
         <v>31.75</v>
       </c>
       <c r="P23">
-        <v>31.59</v>
+        <v>31.77</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
@@ -3844,7 +3843,7 @@
         <v>27.58</v>
       </c>
       <c r="P24">
-        <v>27.56</v>
+        <v>27.65</v>
       </c>
       <c r="Q24" t="s">
         <v>72</v>
@@ -3963,7 +3962,7 @@
         <v>32.520000000000003</v>
       </c>
       <c r="P25">
-        <v>32.46</v>
+        <v>32.85</v>
       </c>
       <c r="Q25" t="s">
         <v>72</v>
@@ -4023,7 +4022,7 @@
         <v>44881</v>
       </c>
       <c r="AJ25" s="9">
-        <v>44914</v>
+        <v>45149</v>
       </c>
       <c r="AK25" t="s">
         <v>72</v>
@@ -4082,7 +4081,7 @@
         <v>25.16</v>
       </c>
       <c r="P26">
-        <v>24.99</v>
+        <v>25.26</v>
       </c>
       <c r="Q26" t="s">
         <v>72</v>
@@ -4201,7 +4200,7 @@
         <v>9.86</v>
       </c>
       <c r="P27">
-        <v>9.84</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="Q27" t="s">
         <v>72</v>
@@ -4320,7 +4319,7 @@
         <v>45.43</v>
       </c>
       <c r="P28">
-        <v>45.4</v>
+        <v>45.84</v>
       </c>
       <c r="Q28" t="s">
         <v>72</v>
@@ -4439,7 +4438,7 @@
         <v>24.75</v>
       </c>
       <c r="P29">
-        <v>24.7</v>
+        <v>24.89</v>
       </c>
       <c r="Q29" t="s">
         <v>72</v>
@@ -4558,7 +4557,7 @@
         <v>19</v>
       </c>
       <c r="P30">
-        <v>18.88</v>
+        <v>19.05</v>
       </c>
       <c r="Q30" t="s">
         <v>72</v>
@@ -4677,7 +4676,7 @@
         <v>63.25</v>
       </c>
       <c r="P31">
-        <v>62.9</v>
+        <v>63.8</v>
       </c>
       <c r="Q31" t="s">
         <v>72</v>
@@ -4796,7 +4795,7 @@
         <v>34.93</v>
       </c>
       <c r="P32">
-        <v>34.659999999999997</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="s">
         <v>72</v>
@@ -4915,7 +4914,7 @@
         <v>34.47</v>
       </c>
       <c r="P33">
-        <v>34.18</v>
+        <v>34.64</v>
       </c>
       <c r="Q33" t="s">
         <v>72</v>
@@ -5034,7 +5033,7 @@
         <v>35.75</v>
       </c>
       <c r="P34">
-        <v>35.520000000000003</v>
+        <v>35.81</v>
       </c>
       <c r="Q34" t="s">
         <v>72</v>
@@ -5094,7 +5093,7 @@
         <v>45093</v>
       </c>
       <c r="AJ34" s="9">
-        <v>45121</v>
+        <v>45149</v>
       </c>
       <c r="AK34" t="s">
         <v>72</v>
@@ -5150,7 +5149,7 @@
         <v>35.869999999999997</v>
       </c>
       <c r="P35">
-        <v>35.67</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="Q35" t="s">
         <v>72</v>
@@ -5210,7 +5209,7 @@
         <v>45093</v>
       </c>
       <c r="AJ35" s="9">
-        <v>45121</v>
+        <v>45149</v>
       </c>
       <c r="AK35" t="s">
         <v>72</v>
@@ -5266,7 +5265,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="P36">
-        <v>32.76</v>
+        <v>33.24</v>
       </c>
       <c r="Q36" t="s">
         <v>72</v>
@@ -5385,7 +5384,7 @@
         <v>34.04</v>
       </c>
       <c r="P37">
-        <v>33.81</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Q37" t="s">
         <v>72</v>
@@ -5504,7 +5503,7 @@
         <v>19.3</v>
       </c>
       <c r="P38">
-        <v>19.25</v>
+        <v>19.52</v>
       </c>
       <c r="Q38" t="s">
         <v>72</v>
@@ -5623,7 +5622,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="P39">
-        <v>16.82</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="Q39" t="s">
         <v>72</v>
@@ -5742,7 +5741,7 @@
         <v>14.24</v>
       </c>
       <c r="P40">
-        <v>14.21</v>
+        <v>14.26</v>
       </c>
       <c r="Q40" t="s">
         <v>72</v>
@@ -5802,7 +5801,7 @@
         <v>45037</v>
       </c>
       <c r="AJ40" s="9">
-        <v>45068</v>
+        <v>45152</v>
       </c>
       <c r="AK40" t="s">
         <v>72</v>
@@ -5861,7 +5860,7 @@
         <v>12.79</v>
       </c>
       <c r="P41">
-        <v>12.72</v>
+        <v>12.83</v>
       </c>
       <c r="Q41" t="s">
         <v>72</v>
@@ -5921,7 +5920,7 @@
         <v>44881</v>
       </c>
       <c r="AJ41" s="9">
-        <v>44914</v>
+        <v>45149</v>
       </c>
       <c r="AK41" t="s">
         <v>72</v>
@@ -5980,7 +5979,7 @@
         <v>14.78</v>
       </c>
       <c r="P42">
-        <v>14.69</v>
+        <v>14.95</v>
       </c>
       <c r="Q42" t="s">
         <v>72</v>
@@ -6099,7 +6098,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="P43">
-        <v>15.95</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Q43" t="s">
         <v>72</v>
